--- a/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
+++ b/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
@@ -7,26 +7,75 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Top_Variaveis_Base Total_detrat" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Top_Variaveis_Base Total_neutro" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Top_Variaveis_Região centro-oes" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Top_Variaveis_Região nordeste_d" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Top_Variaveis_Região nordeste_n" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Top_Variaveis_Região norte_detr" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Top_Variaveis_Região norte_neut" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Top_Variaveis_Região sudeste_de" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Top_Variaveis_Região sudeste_ne" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Top_Variaveis_Região sul_detrat" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Top_Variaveis_Região sul_neutro" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Top_Variaveis_Período 12 A 18 M" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Top_Variaveis_Período 18 A 30 M" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Top_Variaveis_Período 3 A 6 M_d" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Top_Variaveis_Período 3 A 6 M_n" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Top_Variaveis_Período 6 A 12 M_" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Top_Variaveis_Região nordeste -" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Top_Variaveis_Região norte - Pe" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Top_Variaveis_Região sudeste - " sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Top_Variaveis_Região sul - Perí" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Top_Base Total_detrator" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SHAP_Base Total_detrator" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Top_Base Total_neutro" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SHAP_Base Total_neutro" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Top_Região centro-oeste_detrato" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SHAP_Região centro-oeste_detrat" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Top_Região centro-oeste_neutro" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SHAP_Região centro-oeste_neutro" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Top_Região nordeste_detrator" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SHAP_Região nordeste_detrator" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Top_Região nordeste_neutro" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SHAP_Região nordeste_neutro" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Top_Região norte_detrator" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SHAP_Região norte_detrator" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Top_Região norte_neutro" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SHAP_Região norte_neutro" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Top_Região sudeste_detrator" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="SHAP_Região sudeste_detrator" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Top_Região sudeste_neutro" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SHAP_Região sudeste_neutro" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Top_Região sul_detrator" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="SHAP_Região sul_detrator" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Top_Região sul_neutro" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="SHAP_Região sul_neutro" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Top_Período 12 A 18 M_detrator" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="SHAP_Período 12 A 18 M_detrator" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Top_Período 12 A 18 M_neutro" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="SHAP_Período 12 A 18 M_neutro" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Top_Período 18 A 30 M_detrator" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="SHAP_Período 18 A 30 M_detrator" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Top_Período 18 A 30 M_neutro" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="SHAP_Período 18 A 30 M_neutro" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Top_Período 3 A 6 M_detrator" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="SHAP_Período 3 A 6 M_detrator" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Top_Período 3 A 6 M_neutro" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="SHAP_Período 3 A 6 M_neutro" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Top_Período 6 A 12 M_detrator" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="SHAP_Período 6 A 12 M_detrator" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Top_Período 6 A 12 M_neutro" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="SHAP_Período 6 A 12 M_neutro" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Top_Região centro-oeste - Perío" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="SHAP_Região centro-oeste - Perí" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Top_Região nordeste - Período 1" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="SHAP_Região nordeste - Período " sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Top_Região nordeste - Período 3" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Top_Região nordeste - Período 6" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Top_Região norte - Período 12 A" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="SHAP_Região norte - Período 12 " sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Top_Região norte - Período 18 A" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="SHAP_Região norte - Período 18 " sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Top_Região norte - Período 3 A " sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="SHAP_Região norte - Período 3 A" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Top_Região norte - Período 6 A " sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="SHAP_Região norte - Período 6 A" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Top_Região sudeste - Período 12" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="SHAP_Região sudeste - Período 1" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Top_Região sudeste - Período 18" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Top_Região sudeste - Período 3 " sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="SHAP_Região sudeste - Período 3" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Top_Região sudeste - Período 6 " sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="SHAP_Região sudeste - Período 6" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Top_Região sul - Período 12 A 1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="SHAP_Região sul - Período 12 A " sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="Top_Região sul - Período 18 A 3" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="SHAP_Região sul - Período 18 A " sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="Top_Região sul - Período 3 A 6 " sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="SHAP_Região sul - Período 3 A 6" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="Top_Região sul - Período 6 A 12" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="SHAP_Região sul - Período 6 A 1" sheetId="69" state="visible" r:id="rId69"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,12 +504,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
@@ -471,27 +520,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.95711517333984</v>
+        <v>27.81497764587402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.55212211608887</v>
+        <v>14.04765129089355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.81650829315186</v>
+        <v>11.32428073883057</v>
       </c>
     </row>
     <row r="5">
@@ -501,67 +550,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.620444297790527</v>
+        <v>7.27523136138916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.00114917755127</v>
+        <v>6.172030448913574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.727779865264893</v>
+        <v>4.671191215515137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.62046480178833</v>
+        <v>3.643894910812378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.464765548706055</v>
+        <v>3.362491369247437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.459290981292725</v>
+        <v>3.339937210083008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.780353546142578</v>
+        <v>2.973542451858521</v>
       </c>
     </row>
   </sheetData>
@@ -586,12 +635,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
@@ -602,67 +651,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.90174674987793</v>
+        <v>41.58699798583984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.21479034423828</v>
+        <v>12.62203884124756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.71391201019287</v>
+        <v>10.72283267974854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.30581474304199</v>
+        <v>10.47071838378906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.372822761535645</v>
+        <v>7.459891796112061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.112863540649414</v>
+        <v>5.914332866668701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.507925510406494</v>
+        <v>4.647315502166748</v>
       </c>
     </row>
     <row r="9">
@@ -672,27 +721,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.509123802185059</v>
+        <v>3.819038391113281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.407020092010498</v>
+        <v>2.756834506988525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.95397686958313</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -717,43 +766,43 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.17432403564453</v>
+        <v>17.1540641784668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.38810157775879</v>
+        <v>14.35226631164551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.839482307434082</v>
+        <v>14.17296504974365</v>
       </c>
     </row>
     <row r="5">
@@ -763,67 +812,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.319494247436523</v>
+        <v>8.041545867919922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.247224807739258</v>
+        <v>6.525067806243896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.243151664733887</v>
+        <v>6.062411308288574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.643262386322021</v>
+        <v>5.909895420074463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.308060169219971</v>
+        <v>5.57961368560791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.305322170257568</v>
+        <v>4.866899967193604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.531573295593262</v>
+        <v>4.258510112762451</v>
       </c>
     </row>
   </sheetData>
@@ -848,113 +897,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.72483062744141</v>
+        <v>14.54349040985107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.57802677154541</v>
+        <v>14.29376888275146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.5464038848877</v>
+        <v>9.649886131286621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.0727481842041</v>
+        <v>9.459797859191895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.31363677978516</v>
+        <v>7.997009754180908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.177465438842773</v>
+        <v>7.732738494873047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.977599143981934</v>
+        <v>7.603899955749512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.699166297912598</v>
+        <v>6.433145523071289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.512036800384521</v>
+        <v>5.535725116729736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.398085594177246</v>
+        <v>4.340850353240967</v>
       </c>
     </row>
   </sheetData>
@@ -979,23 +1028,23 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.72238922119141</v>
+        <v>20.21556854248047</v>
       </c>
     </row>
     <row r="3">
@@ -1005,87 +1054,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.77704238891602</v>
+        <v>20.0413875579834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.40666103363037</v>
+        <v>11.31691455841064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.378578186035156</v>
+        <v>9.096819877624512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.291250228881836</v>
+        <v>7.812461376190186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.015020370483398</v>
+        <v>6.619153022766113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.475113868713379</v>
+        <v>6.152603626251221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.020224094390869</v>
+        <v>5.914380073547363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.590429782867432</v>
+        <v>5.741262435913086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.323287487030029</v>
+        <v>4.85765552520752</v>
       </c>
     </row>
   </sheetData>
@@ -1110,53 +1159,53 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.20425796508789</v>
+        <v>25.85222053527832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.66456985473633</v>
+        <v>20.2403450012207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.33821868896484</v>
+        <v>16.24983787536621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.40107345581055</v>
+        <v>8.093290328979492</v>
       </c>
     </row>
     <row r="6">
@@ -1166,57 +1215,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.989293098449707</v>
+        <v>6.850545883178711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.376200199127197</v>
+        <v>5.706996440887451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.929644107818604</v>
+        <v>5.611691474914551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.442159652709961</v>
+        <v>4.260184288024902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.98971700668335</v>
+        <v>3.449616193771362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.664872169494629</v>
+        <v>1.378979325294495</v>
       </c>
     </row>
   </sheetData>
@@ -1241,113 +1290,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.95470809936523</v>
+        <v>23.3076114654541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.83908939361572</v>
+        <v>18.61944007873535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.883879661560059</v>
+        <v>12.82913684844971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.669279098510742</v>
+        <v>7.57075023651123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.435434341430664</v>
+        <v>6.779288291931152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.28513765335083</v>
+        <v>5.128203868865967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.124754905700684</v>
+        <v>4.911527633666992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.044276714324951</v>
+        <v>3.54571270942688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.039795875549316</v>
+        <v>3.408196926116943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.723644256591797</v>
+        <v>3.172479629516602</v>
       </c>
     </row>
   </sheetData>
@@ -1372,113 +1421,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.69707679748535</v>
+        <v>15.57793807983398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.04167556762695</v>
+        <v>11.57544708251953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.12161064147949</v>
+        <v>11.10416507720947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.277268409729004</v>
+        <v>10.83810710906982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.552186489105225</v>
+        <v>8.073418617248535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.301126956939697</v>
+        <v>6.90186595916748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.911183834075928</v>
+        <v>6.197616100311279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.74155855178833</v>
+        <v>5.870012283325195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.225285053253174</v>
+        <v>5.469372749328613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.13102912902832</v>
+        <v>5.186535835266113</v>
       </c>
     </row>
   </sheetData>
@@ -1503,113 +1552,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.61877059936523</v>
+        <v>36.97434234619141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.62248039245605</v>
+        <v>15.66175365447998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.5827693939209</v>
+        <v>8.335716247558594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.411540985107422</v>
+        <v>4.967232227325439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.525181293487549</v>
+        <v>4.793956279754639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.006498336791992</v>
+        <v>4.575830459594727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.847128629684448</v>
+        <v>3.663086414337158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.589162826538086</v>
+        <v>3.28059458732605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.203273296356201</v>
+        <v>3.270347356796265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5931940674781799</v>
+        <v>2.860406875610352</v>
       </c>
     </row>
   </sheetData>
@@ -1634,23 +1683,23 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.20941162109375</v>
+        <v>12.92744731903076</v>
       </c>
     </row>
     <row r="3">
@@ -1660,87 +1709,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.9318790435791</v>
+        <v>12.7601432800293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.527675867080688</v>
+        <v>10.91797924041748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.331037044525146</v>
+        <v>8.613874435424805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.63649749755859</v>
+        <v>7.592216014862061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.371795058250427</v>
+        <v>6.587708950042725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.754132747650146</v>
+        <v>6.282494068145752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.376167774200439</v>
+        <v>5.775224685668945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.154849052429199</v>
+        <v>5.643192768096924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.869437694549561</v>
+        <v>4.588194370269775</v>
       </c>
     </row>
   </sheetData>
@@ -1765,83 +1814,83 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.00369834899902</v>
+        <v>21.98038291931152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.16012001037598</v>
+        <v>9.607136726379395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.674300193786621</v>
+        <v>8.683046340942383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.606088161468506</v>
+        <v>6.889214992523193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.104743480682373</v>
+        <v>6.410245418548584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.453344821929932</v>
+        <v>5.250190258026123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.05869197845459</v>
+        <v>4.960859775543213</v>
       </c>
     </row>
     <row r="9">
@@ -1851,27 +1900,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.97365665435791</v>
+        <v>4.77320384979248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.511596202850342</v>
+        <v>4.751935005187988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.453752517700195</v>
+        <v>4.69906759262085</v>
       </c>
     </row>
   </sheetData>
@@ -1896,113 +1945,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.2811222076416</v>
+        <v>12.9600076675415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.11569786071777</v>
+        <v>10.6159782409668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.28852272033691</v>
+        <v>10.02246475219727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.84329414367676</v>
+        <v>8.239290237426758</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.815296173095703</v>
+        <v>8.205165863037109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.616658687591553</v>
+        <v>7.746630191802979</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.94480037689209</v>
+        <v>6.07163667678833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.784674167633057</v>
+        <v>5.703256607055664</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.544300079345703</v>
+        <v>5.267487525939941</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.765633583068848</v>
+        <v>5.04180383682251</v>
       </c>
     </row>
   </sheetData>
@@ -2027,63 +2076,63 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.76700210571289</v>
+        <v>23.03574752807617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.22468757629395</v>
+        <v>11.26682186126709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.34885787963867</v>
+        <v>8.833895683288574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.451831817626953</v>
+        <v>8.01158618927002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.404909133911133</v>
+        <v>7.372564315795898</v>
       </c>
     </row>
     <row r="7">
@@ -2093,47 +2142,1226 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.686176776885986</v>
+        <v>5.896844863891602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.357242107391357</v>
+        <v>5.713109970092773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.083532333374023</v>
+        <v>5.639732360839844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.876931667327881</v>
+        <v>5.138878345489502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.282894611358643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20.19108200073242</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.82441520690918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.01273536682129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.09299373626709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.901759147644043</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.476010322570801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.576790332794189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.109538555145264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>4.066832542419434</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
       <c r="B11" t="n">
-        <v>5.798829078674316</v>
+        <v>3.284715414047241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.36467361450195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.01321506500244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.687994956970215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.221789360046387</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.855617523193359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.730713367462158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.602593421936035</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.005595684051514</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.679466247558594</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.944072484970093</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.17556190490723</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.61777687072754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.35184383392334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.490781784057617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.478643894195557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.972394466400146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.451419830322266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.116864204406738</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.916149616241455</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.687450408935547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.74236583709717</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.69382095336914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.47446346282959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.819951057434082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.569621562957764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.611316680908203</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.579631805419922</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.66570520401001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.441024303436279</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.09765625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21.08719253540039</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20.27019691467285</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.04768943786621</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.299198627471924</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.136650085449219</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.851566791534424</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.765364646911621</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.390032768249512</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.8580482006073</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.583127975463867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.90392684936523</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.71927547454834</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.61594676971436</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.162958145141602</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.051290512084961</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.157761096954346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.788601875305176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.70710277557373</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.527368068695068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.19045352935791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.1534366607666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.69784164428711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.67370891571045</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.81613826751709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.36979341506958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.92199182510376</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.471488475799561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.308316707611084</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.278424263000488</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.001737117767334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20.93750190734863</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.57170963287354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.89123439788818</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.771686553955078</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.950814247131348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.559230804443359</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.996227264404297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.878145217895508</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.106093883514404</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.841911315917969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.00176620483398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.36315155029297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.49296188354492</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.544675827026367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.2217116355896</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.393416404724121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.023891925811768</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.912816286087036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.250985860824585</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.149802923202515</v>
       </c>
     </row>
   </sheetData>
@@ -2158,23 +3386,23 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.16397857666016</v>
+        <v>15.83651161193848</v>
       </c>
     </row>
     <row r="3">
@@ -2184,37 +3412,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.26659774780273</v>
+        <v>14.56945991516113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.827349185943604</v>
+        <v>12.40169334411621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.795449733734131</v>
+        <v>9.147127151489258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.36741304397583</v>
+        <v>5.557271480560303</v>
       </c>
     </row>
     <row r="7">
@@ -2224,47 +3452,1357 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.099158763885498</v>
+        <v>4.84150218963623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.41728401184082</v>
+        <v>4.671360969543457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.788163900375366</v>
+        <v>4.222456932067871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.284759044647217</v>
+        <v>4.211102962493896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.090661525726318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.95284080505371</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.16861438751221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.01547622680664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.129157066345215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.028412818908691</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.700117588043213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.399313926696777</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.95344877243042</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.672013759613037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.434658527374268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.90953636169434</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.4856424331665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.373650550842285</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.46388578414917</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.210432529449463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>6.701834678649902</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.476534843444824</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.873333930969238</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.844418525695801</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
       <c r="B11" t="n">
-        <v>2.989844083786011</v>
+        <v>4.772161483764648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.97912311553955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.054734230041504</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.095053672790527</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.334299564361572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.82376766204834</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.512839317321777</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.29490852355957</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.00962495803833</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.785133361816406</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.714616298675537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.96367645263672</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25.31422424316406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.30117416381836</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.268078804016113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.610330104827881</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.246865749359131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.000729560852051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.901915073394775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.881623983383179</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.68241286277771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.99123096466064</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.5754280090332</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.618914604187012</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.558595657348633</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.402980327606201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.27391529083252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.263278961181641</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.919738292694092</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.163989543914795</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.879898071289062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24.48432159423828</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.14617919921875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.677563667297363</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.443112850189209</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.160819053649902</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.708290576934814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.423299789428711</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.519582748413086</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.479336261749268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.094169139862061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.70594310760498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.33386039733887</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.69376277923584</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.54901123046875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.537734031677246</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.369999408721924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.40489387512207</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.975618362426758</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.956916332244873</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.401278495788574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.80613327026367</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.45077037811279</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.981451034545898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.824292182922363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.119407653808594</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.609699726104736</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.820353031158447</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.776570320129395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.27081298828125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.208149909973145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11.18808841705322</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.314602851867676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.955283164978027</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.713076591491699</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.701601982116699</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.377366542816162</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.203360557556152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.39854907989502</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.861148834228516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.795477390289307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.15467834472656</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.48648452758789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.615281581878662</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.427654266357422</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.080920219421387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.514692783355713</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.293988227844238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.292947292327881</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.660725116729736</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.651037693023682</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +4816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2289,12 +4827,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
@@ -2305,77 +4843,77 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.39419937133789</v>
+        <v>19.49101066589355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.84919548034668</v>
+        <v>12.13765811920166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.2273998260498</v>
+        <v>8.952427864074707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.40213394165039</v>
+        <v>7.268430233001709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.6876392364502</v>
+        <v>6.146248817443848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.73777675628662</v>
+        <v>5.862472057342529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7458237409591675</v>
+        <v>5.245792865753174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5167461633682251</v>
+        <v>4.806926250457764</v>
       </c>
     </row>
     <row r="10">
@@ -2385,7 +4923,1177 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4390833079814911</v>
+        <v>4.792613506317139</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.60528039932251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.44304084777832</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.56410884857178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.53167343139648</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.740653038024902</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.364424228668213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.252813339233398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.477916717529297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.125030517578125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.015015602111816</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.999929428100586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29.360107421875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24.81528663635254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.149332046508789</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.850907802581787</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.796369075775146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.344734668731689</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.843313932418823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.735207319259644</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.211347341537476</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.137484073638916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.53273487091064</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.14018154144287</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.63063526153564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.340875625610352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.15617561340332</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.678382873535156</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.319408893585205</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.88468074798584</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.26843786239624</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.798328638076782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.09097290039062</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.12726211547852</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.22947120666504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.340904235839844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2113880813121796</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.333137512207031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.274521350860596</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.166300296783447</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.096571445465088</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5187466740608215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>44.29346466064453</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38.49989318847656</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.890049934387207</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.316596031188965</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.99822998046875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.14554691314697</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.591339111328125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.264883995056152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.43528747558594</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.65400314331055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.31786251068115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.59284973144531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29.2445011138916</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23.91878128051758</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.08784294128418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11.77591419219971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.272461414337158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.733287811279297</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.39630389213562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.053966283798218</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.990756034851074</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.323561072349548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24.60399436950684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19.8194580078125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.8998908996582</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.94371223449707</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.294866561889648</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.008740901947021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.925771713256836</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.26951003074646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.137403011322021</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.473181009292603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>31.76130676269531</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26.82565116882324</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25.54749870300293</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.590311050415039</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.039008140563965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.842090249061584</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.394132971763611</v>
       </c>
     </row>
   </sheetData>
@@ -2410,53 +6118,53 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.33330535888672</v>
+        <v>36.24813079833984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.94632339477539</v>
+        <v>15.6516809463501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.6076774597168</v>
+        <v>8.807783126831055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.13489532470703</v>
+        <v>8.377840042114258</v>
       </c>
     </row>
     <row r="6">
@@ -2466,7 +6174,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.13638973236084</v>
+        <v>6.047484874725342</v>
       </c>
     </row>
     <row r="7">
@@ -2476,47 +6184,1247 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.972660064697266</v>
+        <v>4.214066505432129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.721398830413818</v>
+        <v>4.164362907409668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.488656997680664</v>
+        <v>3.916990756988525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.478817462921143</v>
+        <v>3.561287403106689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.424181699752808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>37.2168083190918</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23.07760810852051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.05213737487793</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.597204208374023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.436500549316406</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.42945671081543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.190275192260742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>vida_util_de_componentes_csat</t>
+        </is>
+      </c>
       <c r="B11" t="n">
-        <v>4.179878711700439</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30.56203079223633</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>27.15303230285645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25.38271903991699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16.37713241577148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5250861644744873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>36.62444305419922</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33.46387481689453</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.86953544616699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.3442440032959</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.697902679443359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.20941162109375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>29.9318790435791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.527675867080688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.331037044525146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.89404296875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.1314525604248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.572397232055664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.40210485458374</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>vida_util_de_componentes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.89952087402344</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.81697654724121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.41199111938477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.85541820526123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.55665111541748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.035516262054443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.289201259613037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.140117645263672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.442894458770752</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.402998447418213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.92878818511963</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.647600173950195</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.65153980255127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.414289474487305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.325418472290039</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.098464488983154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.757319927215576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.005615711212158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.983095169067383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.630686283111572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.52373886108398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.13324642181396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.21019458770752</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.560738563537598</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.237335205078125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.027857780456543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.717580318450928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.682547092437744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.337523937225342</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.085792064666748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.11813735961914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.66620635986328</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.68154907226562</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.273562431335449</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.884621143341064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.658409595489502</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.15926456451416</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.10809326171875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.552474975585938</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.526077747344971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.74699592590332</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.66704177856445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.85071754455566</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.76266193389893</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.581568717956543</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.031712532043457</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.259347915649414</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.795773506164551</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.811136722564697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.405400037765503</v>
       </c>
     </row>
   </sheetData>
@@ -2541,103 +7449,103 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.95681953430176</v>
+        <v>13.68169212341309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.88943195343018</v>
+        <v>11.3057861328125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.88464260101318</v>
+        <v>11.29386329650879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.32668685913086</v>
+        <v>11.02911567687988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.02735710144043</v>
+        <v>9.61647891998291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.84495639801025</v>
+        <v>8.021237373352051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.117509365081787</v>
+        <v>7.553520202636719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.185642719268799</v>
+        <v>5.86366081237793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.728987216949463</v>
+        <v>5.820319175720215</v>
       </c>
     </row>
     <row r="11">
@@ -2647,7 +7555,1317 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.037970781326294</v>
+        <v>4.787573337554932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.1148509979248</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.48850059509277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.15418004989624</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.868374347686768</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.334511280059814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.415570259094238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.218101978302002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.910541534423828</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.573660850524902</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.456570148468018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.21429061889648</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.56448841094971</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.16336441040039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.270528793334961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.470417976379395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.308684349060059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.160549163818359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.015265464782715</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.409444332122803</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.40949010848999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21.93505668640137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.4244441986084</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.12410926818848</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.632450103759766</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.08421802520752</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.716808795928955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.371615886688232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.234375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.026156902313232</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.758123159408569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.68924140930176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.01780319213867</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.80397415161133</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.854462623596191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.532516956329346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.320067405700684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.822977066040039</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.318590641021729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.746351718902588</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.353694915771484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.59059143066406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.99360179901123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.26474189758301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.835992813110352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.380715847015381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.532364368438721</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.15827465057373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.037137031555176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.911999702453613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.510454177856445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.3986644744873</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.87219429016113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.986606597900391</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.820798397064209</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.597376346588135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.222142696380615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.941007614135742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.305320739746094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.968517780303955</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.930310726165771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.78352546691895</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.49746799468994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.7811975479126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.61564254760742</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.24239444732666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.047722339630127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.026533603668213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.98137378692627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.688814163208008</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.552712917327881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.87114143371582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.11889266967773</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.24071788787842</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.738156318664551</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.88348388671875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.547479152679443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.231062889099121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.091022491455078</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.887940883636475</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.368121147155762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.54602813720703</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.61806392669678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.57375240325928</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.859317779541016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.92113208770752</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.932310581207275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.751759052276611</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.641451835632324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.182591915130615</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.930544376373291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.18408584594727</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.42185211181641</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.03677082061768</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.877866744995117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.765876293182373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.689568996429443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.655092716217041</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.064992427825928</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.638114929199219</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.234775066375732</v>
       </c>
     </row>
   </sheetData>
@@ -2672,113 +8890,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.31137847900391</v>
+        <v>18.96184158325195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.50551414489746</v>
+        <v>12.92029190063477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.403704643249512</v>
+        <v>9.394049644470215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.279399871826172</v>
+        <v>6.668583869934082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.468986034393311</v>
+        <v>5.806087493896484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.345953941345215</v>
+        <v>5.564966678619385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.150462627410889</v>
+        <v>4.920748710632324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.826160430908203</v>
+        <v>4.545436382293701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.716128826141357</v>
+        <v>4.526582717895508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.992312669754028</v>
+        <v>4.457097053527832</v>
       </c>
     </row>
   </sheetData>
@@ -2803,113 +9021,113 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância SHAP (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.85839653015137</v>
+        <v>12.10002994537354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.24448585510254</v>
+        <v>9.469857215881348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.5311861038208</v>
+        <v>8.766739845275879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.401963233947754</v>
+        <v>7.589521408081055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.322576522827148</v>
+        <v>7.434104442596436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.412895202636719</v>
+        <v>7.083970069885254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.681488990783691</v>
+        <v>6.665028095245361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.309779167175293</v>
+        <v>6.605205535888672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.163195610046387</v>
+        <v>6.396105766296387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.074025630950928</v>
+        <v>6.196240901947021</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +9141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2934,63 +9152,63 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variavel</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Importancia (%)</t>
+          <t>Importância (%)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.45491027832031</v>
+        <v>35.79095840454102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.16606521606445</v>
+        <v>28.39360237121582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.81753349304199</v>
+        <v>12.77580261230469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.445528030395508</v>
+        <v>10.05238914489746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.525405406951904</v>
+        <v>5.896276950836182</v>
       </c>
     </row>
     <row r="7">
@@ -3000,7 +9218,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.0321946144104</v>
+        <v>5.0080246925354</v>
       </c>
     </row>
     <row r="8">
@@ -3010,37 +9228,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.8941650390625</v>
+        <v>1.007502794265747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.528984069824219</v>
+        <v>0.8617671132087708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.25297737121582</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>conforto_e_ergonomia_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5.882231712341309</v>
+        <v>0.2136779427528381</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
+++ b/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
@@ -11,22 +11,71 @@
     <sheet name="SHAP_Base Total_detrator" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Top_Base Total_neutro" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="SHAP_Base Total_neutro" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Top_Período 12 A 18 M_detrator" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SHAP_Período 12 A 18 M_detrator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Top_Período 12 A 18 M_neutro" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SHAP_Período 12 A 18 M_neutro" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Top_Período 18 A 30 M_detrator" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SHAP_Período 18 A 30 M_detrator" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Top_Período 18 A 30 M_neutro" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="SHAP_Período 18 A 30 M_neutro" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Top_Período 3 A 6 M_detrator" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="SHAP_Período 3 A 6 M_detrator" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Top_Período 3 A 6 M_neutro" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="SHAP_Período 3 A 6 M_neutro" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Top_Período 6 A 12 M_detrator" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="SHAP_Período 6 A 12 M_detrator" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Top_Período 6 A 12 M_neutro" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="SHAP_Período 6 A 12 M_neutro" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Top_Região centro-oeste_detrato" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SHAP_Região centro-oeste_detrat" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Top_Região centro-oeste_neutro" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SHAP_Região centro-oeste_neutro" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Top_Região nordeste_detrator" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SHAP_Região nordeste_detrator" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Top_Região nordeste_neutro" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SHAP_Região nordeste_neutro" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Top_Região norte_detrator" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="SHAP_Região norte_detrator" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Top_Região norte_neutro" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="SHAP_Região norte_neutro" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Top_Região sudeste_detrator" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="SHAP_Região sudeste_detrator" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Top_Região sudeste_neutro" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="SHAP_Região sudeste_neutro" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Top_Região sul_detrator" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="SHAP_Região sul_detrator" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Top_Região sul_neutro" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="SHAP_Região sul_neutro" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Top_Período 12 A 18 M_detrator" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="SHAP_Período 12 A 18 M_detrator" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Top_Período 12 A 18 M_neutro" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="SHAP_Período 12 A 18 M_neutro" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Top_Período 18 A 30 M_detrator" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="SHAP_Período 18 A 30 M_detrator" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Top_Período 18 A 30 M_neutro" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="SHAP_Período 18 A 30 M_neutro" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Top_Período 3 A 6 M_detrator" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="SHAP_Período 3 A 6 M_detrator" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Top_Período 3 A 6 M_neutro" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="SHAP_Período 3 A 6 M_neutro" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="Top_Período 6 A 12 M_detrator" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="SHAP_Período 6 A 12 M_detrator" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Top_Período 6 A 12 M_neutro" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="SHAP_Período 6 A 12 M_neutro" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Top_Região centro-oeste - Perío" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="SHAP_Região centro-oeste - Perí" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Top_Região nordeste - Período 1" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="SHAP_Região nordeste - Período " sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Top_Região nordeste - Período 3" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="Top_Região nordeste - Período 6" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Top_Região norte - Período 12 A" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="SHAP_Região norte - Período 12 " sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Top_Região norte - Período 18 A" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="SHAP_Região norte - Período 18 " sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Top_Região norte - Período 3 A " sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="SHAP_Região norte - Período 3 A" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="Top_Região norte - Período 6 A " sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="SHAP_Região norte - Período 6 A" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="Top_Região sudeste - Período 12" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="SHAP_Região sudeste - Período 1" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="Top_Região sudeste - Período 18" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="Top_Região sudeste - Período 3 " sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="SHAP_Região sudeste - Período 3" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="Top_Região sudeste - Período 6 " sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="SHAP_Região sudeste - Período 6" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="Top_Região sul - Período 12 A 1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="SHAP_Região sul - Período 12 A " sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="Top_Região sul - Período 18 A 3" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="SHAP_Região sul - Período 18 A " sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="Top_Região sul - Período 3 A 6 " sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="SHAP_Região sul - Período 3 A 6" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="Top_Região sul - Período 6 A 12" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="SHAP_Região sul - Período 6 A 1" sheetId="69" state="visible" r:id="rId69"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -602,7 +651,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.95284080505371</v>
+        <v>41.58699798583984</v>
       </c>
     </row>
     <row r="3">
@@ -612,87 +661,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.16861438751221</v>
+        <v>12.62203884124756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.01547622680664</v>
+        <v>10.72283267974854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.129157066345215</v>
+        <v>10.47071838378906</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.028412818908691</v>
+        <v>7.459891796112061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.700117588043213</v>
+        <v>5.914332866668701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.399313926696777</v>
+        <v>4.647315502166748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.95344877243042</v>
+        <v>3.819038391113281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.672013759613037</v>
+        <v>2.756834506988525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.434658527374268</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -729,101 +778,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.90953636169434</v>
+        <v>17.1540641784668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.4856424331665</v>
+        <v>14.35226631164551</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.373650550842285</v>
+        <v>14.17296504974365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.46388578414917</v>
+        <v>8.041545867919922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.210432529449463</v>
+        <v>6.525067806243896</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.701834678649902</v>
+        <v>6.062411308288574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.476534843444824</v>
+        <v>5.909895420074463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.873333930969238</v>
+        <v>5.57961368560791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.844418525695801</v>
+        <v>4.866899967193604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.772161483764648</v>
+        <v>4.258510112762451</v>
       </c>
     </row>
   </sheetData>
@@ -860,101 +909,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.97912311553955</v>
+        <v>14.54349040985107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.054734230041504</v>
+        <v>14.29376888275146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.095053672790527</v>
+        <v>9.649886131286621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.334299564361572</v>
+        <v>9.459797859191895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.82376766204834</v>
+        <v>7.997009754180908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.512839317321777</v>
+        <v>7.732738494873047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.29490852355957</v>
+        <v>7.603899955749512</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.00962495803833</v>
+        <v>6.433145523071289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.785133361816406</v>
+        <v>5.535725116729736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.714616298675537</v>
+        <v>4.340850353240967</v>
       </c>
     </row>
   </sheetData>
@@ -991,11 +1040,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.96367645263672</v>
+        <v>20.21556854248047</v>
       </c>
     </row>
     <row r="3">
@@ -1005,87 +1054,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.31422424316406</v>
+        <v>20.0413875579834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.30117416381836</v>
+        <v>11.31691455841064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.268078804016113</v>
+        <v>9.096819877624512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.610330104827881</v>
+        <v>7.812461376190186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.246865749359131</v>
+        <v>6.619153022766113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.000729560852051</v>
+        <v>6.152603626251221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.901915073394775</v>
+        <v>5.914380073547363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.881623983383179</v>
+        <v>5.741262435913086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.68241286277771</v>
+        <v>4.85765552520752</v>
       </c>
     </row>
   </sheetData>
@@ -1122,81 +1171,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.99123096466064</v>
+        <v>25.85222053527832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.5754280090332</v>
+        <v>20.2403450012207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.618914604187012</v>
+        <v>16.24983787536621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.558595657348633</v>
+        <v>8.093290328979492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.402980327606201</v>
+        <v>6.850545883178711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.27391529083252</v>
+        <v>5.706996440887451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.263278961181641</v>
+        <v>5.611691474914551</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.919738292694092</v>
+        <v>4.260184288024902</v>
       </c>
     </row>
     <row r="10">
@@ -1206,17 +1255,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.163989543914795</v>
+        <v>3.449616193771362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.879898071289062</v>
+        <v>1.378979325294495</v>
       </c>
     </row>
   </sheetData>
@@ -1253,41 +1302,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.48432159423828</v>
+        <v>23.3076114654541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.14617919921875</v>
+        <v>18.61944007873535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.677563667297363</v>
+        <v>12.82913684844971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.443112850189209</v>
+        <v>7.57075023651123</v>
       </c>
     </row>
     <row r="6">
@@ -1297,57 +1346,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.160819053649902</v>
+        <v>6.779288291931152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.708290576934814</v>
+        <v>5.128203868865967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.423299789428711</v>
+        <v>4.911527633666992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.519582748413086</v>
+        <v>3.54571270942688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.479336261749268</v>
+        <v>3.408196926116943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.094169139862061</v>
+        <v>3.172479629516602</v>
       </c>
     </row>
   </sheetData>
@@ -1384,11 +1433,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.70594310760498</v>
+        <v>15.57793807983398</v>
       </c>
     </row>
     <row r="3">
@@ -1398,87 +1447,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.33386039733887</v>
+        <v>11.57544708251953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.69376277923584</v>
+        <v>11.10416507720947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.54901123046875</v>
+        <v>10.83810710906982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.537734031677246</v>
+        <v>8.073418617248535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.369999408721924</v>
+        <v>6.90186595916748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.40489387512207</v>
+        <v>6.197616100311279</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.975618362426758</v>
+        <v>5.870012283325195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.956916332244873</v>
+        <v>5.469372749328613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.401278495788574</v>
+        <v>5.186535835266113</v>
       </c>
     </row>
   </sheetData>
@@ -1515,71 +1564,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.80613327026367</v>
+        <v>36.97434234619141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.45077037811279</v>
+        <v>15.66175365447998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.981451034545898</v>
+        <v>8.335716247558594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.824292182922363</v>
+        <v>4.967232227325439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.119407653808594</v>
+        <v>4.793956279754639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.609699726104736</v>
+        <v>4.575830459594727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.820353031158447</v>
+        <v>3.663086414337158</v>
       </c>
     </row>
     <row r="9">
@@ -1589,27 +1638,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.776570320129395</v>
+        <v>3.28059458732605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.27081298828125</v>
+        <v>3.270347356796265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.208149909973145</v>
+        <v>2.860406875610352</v>
       </c>
     </row>
   </sheetData>
@@ -1646,101 +1695,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.18808841705322</v>
+        <v>12.92744731903076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.314602851867676</v>
+        <v>12.7601432800293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.955283164978027</v>
+        <v>10.91797924041748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.713076591491699</v>
+        <v>8.613874435424805</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.701601982116699</v>
+        <v>7.592216014862061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.377366542816162</v>
+        <v>6.587708950042725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.203360557556152</v>
+        <v>6.282494068145752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.39854907989502</v>
+        <v>5.775224685668945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.861148834228516</v>
+        <v>5.643192768096924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.795477390289307</v>
+        <v>4.588194370269775</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1830,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.15467834472656</v>
+        <v>21.98038291931152</v>
       </c>
     </row>
     <row r="3">
@@ -1791,87 +1840,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.48648452758789</v>
+        <v>9.607136726379395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.615281581878662</v>
+        <v>8.683046340942383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.427654266357422</v>
+        <v>6.889214992523193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.080920219421387</v>
+        <v>6.410245418548584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.514692783355713</v>
+        <v>5.250190258026123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.293988227844238</v>
+        <v>4.960859775543213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.292947292327881</v>
+        <v>4.77320384979248</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.660725116729736</v>
+        <v>4.751935005187988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.651037693023682</v>
+        <v>4.69906759262085</v>
       </c>
     </row>
   </sheetData>
@@ -2039,101 +2088,1280 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.44304084777832</v>
+        <v>23.03574752807617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.56410884857178</v>
+        <v>11.26682186126709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.53167343139648</v>
+        <v>8.833895683288574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.740653038024902</v>
+        <v>8.01158618927002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.364424228668213</v>
+        <v>7.372564315795898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.252813339233398</v>
+        <v>5.896844863891602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.477916717529297</v>
+        <v>5.713109970092773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.125030517578125</v>
+        <v>5.639732360839844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.015015602111816</v>
+        <v>5.138878345489502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.282894611358643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20.19108200073242</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.82441520690918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.01273536682129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.09299373626709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.901759147644043</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.476010322570801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.576790332794189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.109538555145264</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.066832542419434</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.999929428100586</v>
+        <v>3.284715414047241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.36467361450195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.01321506500244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.687994956970215</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.221789360046387</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.855617523193359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.730713367462158</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.602593421936035</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.005595684051514</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.679466247558594</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.944072484970093</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.17556190490723</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.61777687072754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.35184383392334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.490781784057617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.478643894195557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.972394466400146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.451419830322266</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.116864204406738</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.916149616241455</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.687450408935547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.74236583709717</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.69382095336914</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.47446346282959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.819951057434082</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.569621562957764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.611316680908203</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.579631805419922</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.66570520401001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.441024303436279</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.09765625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21.08719253540039</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>20.27019691467285</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.04768943786621</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.299198627471924</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.136650085449219</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.851566791534424</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.765364646911621</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.390032768249512</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.8580482006073</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.583127975463867</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.90392684936523</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.71927547454834</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.61594676971436</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.162958145141602</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.051290512084961</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.157761096954346</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.788601875305176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.70710277557373</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.527368068695068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.19045352935791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.1534366607666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.69784164428711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.67370891571045</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.81613826751709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.36979341506958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.92199182510376</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.471488475799561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.308316707611084</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.278424263000488</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.001737117767334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20.93750190734863</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.57170963287354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.89123439788818</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.771686553955078</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.950814247131348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.559230804443359</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.996227264404297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.878145217895508</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.106093883514404</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.841911315917969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.00176620483398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.36315155029297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.49296188354492</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.544675827026367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.2217116355896</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.393416404724121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.023891925811768</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.912816286087036</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.250985860824585</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.149802923202515</v>
       </c>
     </row>
   </sheetData>
@@ -2272,6 +3500,1316 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.95284080505371</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.16861438751221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.01547622680664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.129157066345215</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.028412818908691</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.700117588043213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.399313926696777</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.95344877243042</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.672013759613037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.434658527374268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.90953636169434</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.4856424331665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.373650550842285</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.46388578414917</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.210432529449463</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.701834678649902</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.476534843444824</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.873333930969238</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.844418525695801</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.772161483764648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.97912311553955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.054734230041504</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.095053672790527</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.334299564361572</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.82376766204834</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.512839317321777</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.29490852355957</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.00962495803833</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.785133361816406</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.714616298675537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>25.96367645263672</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25.31422424316406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.30117416381836</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.268078804016113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.610330104827881</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.246865749359131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.000729560852051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.901915073394775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.881623983383179</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.68241286277771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.99123096466064</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.5754280090332</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.618914604187012</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.558595657348633</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.402980327606201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.27391529083252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.263278961181641</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.919738292694092</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.163989543914795</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.879898071289062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24.48432159423828</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.14617919921875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.677563667297363</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.443112850189209</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.160819053649902</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.708290576934814</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.423299789428711</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.519582748413086</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.479336261749268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.094169139862061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.70594310760498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.33386039733887</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.69376277923584</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.54901123046875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.537734031677246</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.369999408721924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.40489387512207</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.975618362426758</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.956916332244873</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.401278495788574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26.80613327026367</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.45077037811279</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.981451034545898</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.824292182922363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.119407653808594</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.609699726104736</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.820353031158447</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.776570320129395</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.27081298828125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.208149909973145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11.18808841705322</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.314602851867676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.955283164978027</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.713076591491699</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.701601982116699</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.377366542816162</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7.203360557556152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.39854907989502</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.861148834228516</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.795477390289307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.15467834472656</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.48648452758789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.615281581878662</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.427654266357422</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.080920219421387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.514692783355713</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.293988227844238</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.292947292327881</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.660725116729736</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.651037693023682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2396,6 +4934,1166 @@
       </c>
       <c r="B11" t="n">
         <v>4.60528039932251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.44304084777832</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.56410884857178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.53167343139648</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.740653038024902</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.364424228668213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.252813339233398</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.477916717529297</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.125030517578125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.015015602111816</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.999929428100586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29.360107421875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24.81528663635254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.149332046508789</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.850907802581787</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.796369075775146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.344734668731689</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.843313932418823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.735207319259644</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.211347341537476</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.137484073638916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.53273487091064</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.14018154144287</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.63063526153564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.340875625610352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.15617561340332</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.678382873535156</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.319408893585205</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.88468074798584</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.26843786239624</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.798328638076782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66.09097290039062</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.12726211547852</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.22947120666504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.340904235839844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2113880813121796</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.333137512207031</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.274521350860596</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.166300296783447</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.096571445465088</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5187466740608215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>44.29346466064453</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>38.49989318847656</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.890049934387207</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.316596031188965</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>70.99822998046875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.14554691314697</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.591339111328125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.264883995056152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>57.43528747558594</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.65400314331055</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14.31786251068115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.59284973144531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>29.2445011138916</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23.91878128051758</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.08784294128418</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11.77591419219971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.272461414337158</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.733287811279297</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.39630389213562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.053966283798218</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.990756034851074</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.323561072349548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>24.60399436950684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>19.8194580078125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15.8998908996582</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.94371223449707</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.294866561889648</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.008740901947021</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.925771713256836</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.26951003074646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.137403011322021</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.473181009292603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>31.76130676269531</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26.82565116882324</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25.54749870300293</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.590311050415039</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.039008140563965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.842090249061584</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.394132971763611</v>
       </c>
     </row>
   </sheetData>
@@ -2432,101 +6130,1301 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.08719253540039</v>
+        <v>36.24813079833984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.27019691467285</v>
+        <v>15.6516809463501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.04768943786621</v>
+        <v>8.807783126831055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.299198627471924</v>
+        <v>8.377840042114258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.136650085449219</v>
+        <v>6.047484874725342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.851566791534424</v>
+        <v>4.214066505432129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.765364646911621</v>
+        <v>4.164362907409668</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.390032768249512</v>
+        <v>3.916990756988525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.8580482006073</v>
+        <v>3.561287403106689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.424181699752808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>37.2168083190918</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23.07760810852051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.05213737487793</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>8.597204208374023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.436500549316406</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.42945671081543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.190275192260742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
       <c r="B11" t="n">
-        <v>3.583127975463867</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30.56203079223633</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>27.15303230285645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25.38271903991699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16.37713241577148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5250861644744873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>36.62444305419922</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33.46387481689453</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.86953544616699</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12.3442440032959</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.697902679443359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>67.20941162109375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>29.9318790435791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.527675867080688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.331037044525146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.89404296875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.1314525604248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.572397232055664</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.40210485458374</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.89952087402344</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.81697654724121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.41199111938477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.85541820526123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.55665111541748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.035516262054443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.289201259613037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.140117645263672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.442894458770752</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.402998447418213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.92878818511963</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.647600173950195</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.65153980255127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.414289474487305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.325418472290039</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.098464488983154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.757319927215576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.005615711212158</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.983095169067383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.630686283111572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.52373886108398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.13324642181396</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8.21019458770752</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.560738563537598</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.237335205078125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.027857780456543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.717580318450928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.682547092437744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.337523937225342</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.085792064666748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.11813735961914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.66620635986328</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.68154907226562</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.273562431335449</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.884621143341064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.658409595489502</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.15926456451416</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.10809326171875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.552474975585938</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.526077747344971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.74699592590332</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.66704177856445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.85071754455566</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.76266193389893</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.581568717956543</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.031712532043457</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.259347915649414</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.795773506164551</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.811136722564697</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.405400037765503</v>
       </c>
     </row>
   </sheetData>
@@ -2563,101 +7461,1411 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.90392684936523</v>
+        <v>13.68169212341309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.71927547454834</v>
+        <v>11.3057861328125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.61594676971436</v>
+        <v>11.29386329650879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.162958145141602</v>
+        <v>11.02911567687988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.051290512084961</v>
+        <v>9.61647891998291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.157761096954346</v>
+        <v>8.021237373352051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.788601875305176</v>
+        <v>7.553520202636719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.70710277557373</v>
+        <v>5.86366081237793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.527368068695068</v>
+        <v>5.820319175720215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.787573337554932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>23.1148509979248</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14.48850059509277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>7.15418004989624</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6.868374347686768</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.334511280059814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.415570259094238</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.218101978302002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.910541534423828</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.573660850524902</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
       <c r="B11" t="n">
-        <v>5.19045352935791</v>
+        <v>4.456570148468018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.21429061889648</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.56448841094971</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.16336441040039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.270528793334961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8.470417976379395</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.308684349060059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.160549163818359</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.015265464782715</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.409444332122803</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.40949010848999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>21.93505668640137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.4244441986084</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.12410926818848</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.632450103759766</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.08421802520752</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.716808795928955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.371615886688232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.234375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.026156902313232</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.758123159408569</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.68924140930176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.01780319213867</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.80397415161133</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.854462623596191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.532516956329346</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.320067405700684</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.822977066040039</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.318590641021729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.746351718902588</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.353694915771484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12.59059143066406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.99360179901123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.26474189758301</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.835992813110352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.380715847015381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6.532364368438721</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.15827465057373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.037137031555176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.911999702453613</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.510454177856445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16.3986644744873</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13.87219429016113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.986606597900391</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.820798397064209</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.597376346588135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.222142696380615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.941007614135742</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.305320739746094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.968517780303955</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.930310726165771</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.78352546691895</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>15.49746799468994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.7811975479126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.61564254760742</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10.24239444732666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.047722339630127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.026533603668213</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.98137378692627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.688814163208008</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.552712917327881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.87114143371582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>16.11889266967773</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.24071788787842</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.738156318664551</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.88348388671875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.547479152679443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.231062889099121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.091022491455078</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.887940883636475</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.368121147155762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>19.54602813720703</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.61806392669678</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.57375240325928</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.859317779541016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.92113208770752</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.932310581207275</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.751759052276611</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.641451835632324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.182591915130615</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.930544376373291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Importância SHAP (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18.18408584594727</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12.42185211181641</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>facilidade_de_operacao_csat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10.03677082061768</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7.877866744995117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7.765876293182373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.689568996429443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.655092716217041</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.064992427825928</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.638114929199219</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.234775066375732</v>
       </c>
     </row>
   </sheetData>
@@ -2694,101 +8902,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.1534366607666</v>
+        <v>18.96184158325195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.69784164428711</v>
+        <v>12.92029190063477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.67370891571045</v>
+        <v>9.394049644470215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.81613826751709</v>
+        <v>6.668583869934082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.36979341506958</v>
+        <v>5.806087493896484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.92199182510376</v>
+        <v>5.564966678619385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.471488475799561</v>
+        <v>4.920748710632324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.308316707611084</v>
+        <v>4.545436382293701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.278424263000488</v>
+        <v>4.526582717895508</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.001737117767334</v>
+        <v>4.457097053527832</v>
       </c>
     </row>
   </sheetData>
@@ -2829,97 +9037,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.93750190734863</v>
+        <v>12.10002994537354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.57170963287354</v>
+        <v>9.469857215881348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.89123439788818</v>
+        <v>8.766739845275879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.771686553955078</v>
+        <v>7.589521408081055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.950814247131348</v>
+        <v>7.434104442596436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.559230804443359</v>
+        <v>7.083970069885254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.996227264404297</v>
+        <v>6.665028095245361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.878145217895508</v>
+        <v>6.605205535888672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.106093883514404</v>
+        <v>6.396105766296387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.841911315917969</v>
+        <v>6.196240901947021</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +9141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2956,31 +9164,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.00176620483398</v>
+        <v>35.79095840454102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.36315155029297</v>
+        <v>28.39360237121582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.49296188354492</v>
+        <v>12.77580261230469</v>
       </c>
     </row>
     <row r="5">
@@ -2990,67 +9198,57 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.544675827026367</v>
+        <v>10.05238914489746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.2217116355896</v>
+        <v>5.896276950836182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.393416404724121</v>
+        <v>5.0080246925354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.023891925811768</v>
+        <v>1.007502794265747</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.912816286087036</v>
+        <v>0.8617671132087708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.250985860824585</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3.149802923202515</v>
+        <v>0.2136779427528381</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
+++ b/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
@@ -520,27 +520,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.81497764587402</v>
+        <v>29.89649772644043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.04765129089355</v>
+        <v>15.8663969039917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.32428073883057</v>
+        <v>10.961106300354</v>
       </c>
     </row>
     <row r="5">
@@ -550,67 +550,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.27523136138916</v>
+        <v>5.662025928497314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.172030448913574</v>
+        <v>4.27715015411377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.671191215515137</v>
+        <v>4.043355941772461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.643894910812378</v>
+        <v>3.951576232910156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.362491369247437</v>
+        <v>3.818417310714722</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.339937210083008</v>
+        <v>3.813735008239746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.973542451858521</v>
+        <v>3.233084917068481</v>
       </c>
     </row>
   </sheetData>
@@ -651,47 +651,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.58699798583984</v>
+        <v>43.22714614868164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.62203884124756</v>
+        <v>12.52303981781006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.72283267974854</v>
+        <v>10.13141822814941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.47071838378906</v>
+        <v>9.999636650085449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.459891796112061</v>
+        <v>8.442178726196289</v>
       </c>
     </row>
     <row r="7">
@@ -701,43 +701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.914332866668701</v>
+        <v>5.706725120544434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.647315502166748</v>
+        <v>4.15296745300293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.819038391113281</v>
+        <v>2.928468465805054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.756834506988525</v>
+        <v>2.88842511177063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.1540641784668</v>
+        <v>25.84820365905762</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.35226631164551</v>
+        <v>12.28935432434082</v>
       </c>
     </row>
     <row r="4">
@@ -802,17 +802,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.17296504974365</v>
+        <v>11.10975456237793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.041545867919922</v>
+        <v>9.811954498291016</v>
       </c>
     </row>
     <row r="6">
@@ -822,57 +822,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.525067806243896</v>
+        <v>7.169702529907227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.062411308288574</v>
+        <v>6.144235134124756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.909895420074463</v>
+        <v>4.160447597503662</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.57961368560791</v>
+        <v>3.955357789993286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.866899967193604</v>
+        <v>3.9466872215271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.258510112762451</v>
+        <v>3.683266162872314</v>
       </c>
     </row>
   </sheetData>
@@ -909,41 +909,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.54349040985107</v>
+        <v>12.34247207641602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.29376888275146</v>
+        <v>10.56956100463867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.649886131286621</v>
+        <v>9.972878456115723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.459797859191895</v>
+        <v>9.848682403564453</v>
       </c>
     </row>
     <row r="6">
@@ -953,47 +953,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.997009754180908</v>
+        <v>9.373125076293945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.732738494873047</v>
+        <v>7.613536834716797</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.603899955749512</v>
+        <v>7.211328983306885</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.433145523071289</v>
+        <v>7.10667610168457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.535725116729736</v>
+        <v>4.648988723754883</v>
       </c>
     </row>
     <row r="11">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.340850353240967</v>
+        <v>4.201501369476318</v>
       </c>
     </row>
   </sheetData>
@@ -1040,31 +1040,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.21556854248047</v>
+        <v>19.53778266906738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.0413875579834</v>
+        <v>15.55579948425293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.31691455841064</v>
+        <v>12.61410140991211</v>
       </c>
     </row>
     <row r="5">
@@ -1074,67 +1074,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.096819877624512</v>
+        <v>12.06786155700684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.812461376190186</v>
+        <v>11.77481651306152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.619153022766113</v>
+        <v>10.61724281311035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.152603626251221</v>
+        <v>5.989058971405029</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.914380073547363</v>
+        <v>5.076758861541748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.741262435913086</v>
+        <v>2.671686410903931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.85765552520752</v>
+        <v>1.995179057121277</v>
       </c>
     </row>
   </sheetData>
@@ -1175,97 +1175,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.85222053527832</v>
+        <v>19.7449893951416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.2403450012207</v>
+        <v>14.26756381988525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.24983787536621</v>
+        <v>13.15948390960693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.093290328979492</v>
+        <v>11.37325859069824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.850545883178711</v>
+        <v>9.77180290222168</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.706996440887451</v>
+        <v>8.796313285827637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.611691474914551</v>
+        <v>6.495743751525879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.260184288024902</v>
+        <v>6.048736572265625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.449616193771362</v>
+        <v>4.865722179412842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.378979325294495</v>
+        <v>2.301017284393311</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.3076114654541</v>
+        <v>25.64529991149902</v>
       </c>
     </row>
     <row r="3">
@@ -1316,87 +1316,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.61944007873535</v>
+        <v>16.76285171508789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.82913684844971</v>
+        <v>8.518159866333008</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.57075023651123</v>
+        <v>8.405560493469238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.779288291931152</v>
+        <v>5.859802722930908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.128203868865967</v>
+        <v>5.748356342315674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.911527633666992</v>
+        <v>5.571274280548096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.54571270942688</v>
+        <v>5.277511596679688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.408196926116943</v>
+        <v>5.177842140197754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.172479629516602</v>
+        <v>3.616357326507568</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.57793807983398</v>
+        <v>17.44384574890137</v>
       </c>
     </row>
     <row r="3">
@@ -1447,87 +1447,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.57544708251953</v>
+        <v>12.45414447784424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.10416507720947</v>
+        <v>12.185302734375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.83810710906982</v>
+        <v>9.418868064880371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.073418617248535</v>
+        <v>8.221803665161133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.90186595916748</v>
+        <v>7.884945869445801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.197616100311279</v>
+        <v>7.564370155334473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.870012283325195</v>
+        <v>6.484626293182373</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.469372749328613</v>
+        <v>5.413798332214355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.186535835266113</v>
+        <v>5.38273811340332</v>
       </c>
     </row>
   </sheetData>
@@ -1564,21 +1564,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.97434234619141</v>
+        <v>22.21955299377441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.66175365447998</v>
+        <v>17.39564323425293</v>
       </c>
     </row>
     <row r="4">
@@ -1588,77 +1588,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.335716247558594</v>
+        <v>11.62705135345459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.967232227325439</v>
+        <v>8.078900337219238</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.793956279754639</v>
+        <v>6.292129516601562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.575830459594727</v>
+        <v>5.510459423065186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.663086414337158</v>
+        <v>4.022700786590576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.28059458732605</v>
+        <v>3.703298807144165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.270347356796265</v>
+        <v>3.577342510223389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.860406875610352</v>
+        <v>3.500720977783203</v>
       </c>
     </row>
   </sheetData>
@@ -1695,71 +1695,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.92744731903076</v>
+        <v>12.58657169342041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.7601432800293</v>
+        <v>12.04568958282471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.91797924041748</v>
+        <v>11.72999954223633</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.613874435424805</v>
+        <v>8.810552597045898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.592216014862061</v>
+        <v>6.930779457092285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.587708950042725</v>
+        <v>6.849961757659912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.282494068145752</v>
+        <v>6.810805320739746</v>
       </c>
     </row>
     <row r="9">
@@ -1769,27 +1769,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.775224685668945</v>
+        <v>6.789477348327637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.643192768096924</v>
+        <v>5.084622859954834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.588194370269775</v>
+        <v>4.751741886138916</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.98038291931152</v>
+        <v>21.95098876953125</v>
       </c>
     </row>
     <row r="3">
@@ -1840,67 +1840,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.607136726379395</v>
+        <v>9.727118492126465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.683046340942383</v>
+        <v>9.448457717895508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.889214992523193</v>
+        <v>6.752442359924316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.410245418548584</v>
+        <v>6.016777992248535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.250190258026123</v>
+        <v>5.622441291809082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.960859775543213</v>
+        <v>5.512083053588867</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.77320384979248</v>
+        <v>5.220110416412354</v>
       </c>
     </row>
     <row r="10">
@@ -1910,17 +1910,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.751935005187988</v>
+        <v>4.999434947967529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.69906759262085</v>
+        <v>4.70301342010498</v>
       </c>
     </row>
   </sheetData>
@@ -1961,17 +1961,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.9600076675415</v>
+        <v>13.69229698181152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.6159782409668</v>
+        <v>13.04875469207764</v>
       </c>
     </row>
     <row r="4">
@@ -1981,77 +1981,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.02246475219727</v>
+        <v>8.874377250671387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.239290237426758</v>
+        <v>8.403133392333984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.205165863037109</v>
+        <v>7.580231666564941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.746630191802979</v>
+        <v>7.077168464660645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.07163667678833</v>
+        <v>6.012436866760254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.703256607055664</v>
+        <v>5.135567665100098</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.267487525939941</v>
+        <v>4.996131896972656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.04180383682251</v>
+        <v>4.901936054229736</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.03574752807617</v>
+        <v>20.21206855773926</v>
       </c>
     </row>
     <row r="3">
@@ -2102,57 +2102,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.26682186126709</v>
+        <v>11.59636402130127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.833895683288574</v>
+        <v>9.21216869354248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.01158618927002</v>
+        <v>8.542551040649414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.372564315795898</v>
+        <v>8.094931602478027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.896844863891602</v>
+        <v>5.315352916717529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.713109970092773</v>
+        <v>5.306321144104004</v>
       </c>
     </row>
     <row r="9">
@@ -2162,27 +2162,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.639732360839844</v>
+        <v>5.297623634338379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.138878345489502</v>
+        <v>4.477924823760986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.282894611358643</v>
+        <v>4.347746849060059</v>
       </c>
     </row>
   </sheetData>
@@ -2223,57 +2223,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.19108200073242</v>
+        <v>20.08448028564453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.82441520690918</v>
+        <v>16.85107421875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.01273536682129</v>
+        <v>10.27292060852051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.09299373626709</v>
+        <v>9.038041114807129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.901759147644043</v>
+        <v>7.342836380004883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.476010322570801</v>
+        <v>6.237871646881104</v>
       </c>
     </row>
     <row r="8">
@@ -2283,37 +2283,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.576790332794189</v>
+        <v>5.707350730895996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.109538555145264</v>
+        <v>4.831416606903076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.066832542419434</v>
+        <v>3.864888429641724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.284715414047241</v>
+        <v>3.46757698059082</v>
       </c>
     </row>
   </sheetData>
@@ -2354,97 +2354,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.36467361450195</v>
+        <v>21.40144348144531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.01321506500244</v>
+        <v>12.20409488677979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.687994956970215</v>
+        <v>11.83442497253418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.221789360046387</v>
+        <v>7.60851001739502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.855617523193359</v>
+        <v>6.102394104003906</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.730713367462158</v>
+        <v>5.438594341278076</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.602593421936035</v>
+        <v>5.060806751251221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.005595684051514</v>
+        <v>4.72544002532959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.679466247558594</v>
+        <v>4.572322368621826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.944072484970093</v>
+        <v>4.337647914886475</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.17556190490723</v>
+        <v>16.68026542663574</v>
       </c>
     </row>
     <row r="3">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.61777687072754</v>
+        <v>13.69763565063477</v>
       </c>
     </row>
     <row r="4">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.35184383392334</v>
+        <v>7.751141548156738</v>
       </c>
     </row>
     <row r="5">
@@ -2515,67 +2515,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.490781784057617</v>
+        <v>7.341516017913818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.478643894195557</v>
+        <v>6.496826648712158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.972394466400146</v>
+        <v>6.493617534637451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.451419830322266</v>
+        <v>6.021049499511719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.116864204406738</v>
+        <v>4.969231605529785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.916149616241455</v>
+        <v>4.967074871063232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.687450408935547</v>
+        <v>4.357547283172607</v>
       </c>
     </row>
   </sheetData>
@@ -2612,31 +2612,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.74236583709717</v>
+        <v>12.67572784423828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.69382095336914</v>
+        <v>11.08305263519287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.47446346282959</v>
+        <v>9.227849960327148</v>
       </c>
     </row>
     <row r="5">
@@ -2646,67 +2646,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.819951057434082</v>
+        <v>8.52379035949707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.569621562957764</v>
+        <v>7.772871017456055</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.611316680908203</v>
+        <v>6.792255401611328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.579631805419922</v>
+        <v>6.693767547607422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.66570520401001</v>
+        <v>6.599202156066895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.441024303436279</v>
+        <v>6.197862148284912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.09765625</v>
+        <v>5.683765411376953</v>
       </c>
     </row>
   </sheetData>
@@ -2743,21 +2743,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.08719253540039</v>
+        <v>19.93035697937012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.27019691467285</v>
+        <v>19.39087677001953</v>
       </c>
     </row>
     <row r="4">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.04768943786621</v>
+        <v>9.493984222412109</v>
       </c>
     </row>
     <row r="5">
@@ -2777,67 +2777,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.299198627471924</v>
+        <v>7.886283874511719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.136650085449219</v>
+        <v>5.7839035987854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.851566791534424</v>
+        <v>5.615736484527588</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.765364646911621</v>
+        <v>5.071775436401367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.390032768249512</v>
+        <v>4.705596923828125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.8580482006073</v>
+        <v>4.653576374053955</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.583127975463867</v>
+        <v>3.077407598495483</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.90392684936523</v>
+        <v>13.96082019805908</v>
       </c>
     </row>
     <row r="3">
@@ -2888,77 +2888,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.71927547454834</v>
+        <v>11.62513828277588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.61594676971436</v>
+        <v>8.623067855834961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.162958145141602</v>
+        <v>8.181613922119141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.051290512084961</v>
+        <v>7.733450889587402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.157761096954346</v>
+        <v>7.324923515319824</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.788601875305176</v>
+        <v>7.307793140411377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.70710277557373</v>
+        <v>6.148710250854492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.527368068695068</v>
+        <v>5.848121643066406</v>
       </c>
     </row>
     <row r="11">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.19045352935791</v>
+        <v>5.565221786499023</v>
       </c>
     </row>
   </sheetData>
@@ -3009,27 +3009,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.1534366607666</v>
+        <v>21.37823295593262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.69784164428711</v>
+        <v>12.11484909057617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.67370891571045</v>
+        <v>10.42649936676025</v>
       </c>
     </row>
     <row r="5">
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.81613826751709</v>
+        <v>9.201840400695801</v>
       </c>
     </row>
     <row r="6">
@@ -3049,17 +3049,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.36979341506958</v>
+        <v>8.570992469787598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.92199182510376</v>
+        <v>5.133689403533936</v>
       </c>
     </row>
     <row r="8">
@@ -3069,37 +3069,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.471488475799561</v>
+        <v>4.967593669891357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.308316707611084</v>
+        <v>3.905171155929565</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.278424263000488</v>
+        <v>3.749660015106201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.001737117767334</v>
+        <v>3.654962778091431</v>
       </c>
     </row>
   </sheetData>
@@ -3140,37 +3140,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.93750190734863</v>
+        <v>18.90303421020508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.57170963287354</v>
+        <v>12.90829467773438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.89123439788818</v>
+        <v>10.66752815246582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.771686553955078</v>
+        <v>9.678309440612793</v>
       </c>
     </row>
     <row r="6">
@@ -3180,57 +3180,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.950814247131348</v>
+        <v>7.596107006072998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.559230804443359</v>
+        <v>5.806120872497559</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.996227264404297</v>
+        <v>4.973323822021484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.878145217895508</v>
+        <v>4.733660221099854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.106093883514404</v>
+        <v>4.166891574859619</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.841911315917969</v>
+        <v>3.799986362457275</v>
       </c>
     </row>
   </sheetData>
@@ -3267,51 +3267,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.00176620483398</v>
+        <v>21.95964622497559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.36315155029297</v>
+        <v>20.99741363525391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.49296188354492</v>
+        <v>10.03316497802734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.544675827026367</v>
+        <v>9.188549995422363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.2217116355896</v>
+        <v>6.58884334564209</v>
       </c>
     </row>
     <row r="7">
@@ -3321,47 +3321,47 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.393416404724121</v>
+        <v>5.101581573486328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.023891925811768</v>
+        <v>4.436565399169922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.912816286087036</v>
+        <v>3.655831813812256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.250985860824585</v>
+        <v>3.608180284500122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.149802923202515</v>
+        <v>3.522082805633545</v>
       </c>
     </row>
   </sheetData>
@@ -3398,21 +3398,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.83651161193848</v>
+        <v>15.2839527130127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.56945991516113</v>
+        <v>14.36013317108154</v>
       </c>
     </row>
     <row r="4">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.40169334411621</v>
+        <v>12.11905860900879</v>
       </c>
     </row>
     <row r="5">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.147127151489258</v>
+        <v>8.595370292663574</v>
       </c>
     </row>
     <row r="6">
@@ -3442,27 +3442,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.557271480560303</v>
+        <v>6.195106983184814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.84150218963623</v>
+        <v>5.244959354400635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.671360969543457</v>
+        <v>4.71238374710083</v>
       </c>
     </row>
     <row r="9">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.222456932067871</v>
+        <v>4.585453510284424</v>
       </c>
     </row>
     <row r="10">
@@ -3482,17 +3482,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.211102962493896</v>
+        <v>4.394911289215088</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.090661525726318</v>
+        <v>3.77767014503479</v>
       </c>
     </row>
   </sheetData>
@@ -3529,81 +3529,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.95284080505371</v>
+        <v>15.42953968048096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.16861438751221</v>
+        <v>10.30485343933105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.01547622680664</v>
+        <v>10.00946426391602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.129157066345215</v>
+        <v>8.424405097961426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.028412818908691</v>
+        <v>8.196428298950195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.700117588043213</v>
+        <v>7.939611911773682</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.399313926696777</v>
+        <v>7.814513683319092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.95344877243042</v>
+        <v>7.782270908355713</v>
       </c>
     </row>
     <row r="10">
@@ -3613,17 +3613,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.672013759613037</v>
+        <v>7.217176914215088</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.434658527374268</v>
+        <v>4.929229736328125</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.90953636169434</v>
+        <v>15.83451175689697</v>
       </c>
     </row>
     <row r="3">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.4856424331665</v>
+        <v>10.25830173492432</v>
       </c>
     </row>
     <row r="4">
@@ -3684,17 +3684,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.373650550842285</v>
+        <v>9.960934638977051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.46388578414917</v>
+        <v>7.529778003692627</v>
       </c>
     </row>
     <row r="6">
@@ -3704,27 +3704,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.210432529449463</v>
+        <v>7.459665298461914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.701834678649902</v>
+        <v>7.237888336181641</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.476534843444824</v>
+        <v>6.001543045043945</v>
       </c>
     </row>
     <row r="9">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.873333930969238</v>
+        <v>5.636325836181641</v>
       </c>
     </row>
     <row r="10">
@@ -3744,17 +3744,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.844418525695801</v>
+        <v>5.291257381439209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.772161483764648</v>
+        <v>5.07677698135376</v>
       </c>
     </row>
   </sheetData>
@@ -3795,37 +3795,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.97912311553955</v>
+        <v>10.24517250061035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.054734230041504</v>
+        <v>10.23800182342529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.095053672790527</v>
+        <v>7.8749098777771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.334299564361572</v>
+        <v>7.563102245330811</v>
       </c>
     </row>
     <row r="6">
@@ -3835,57 +3835,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.82376766204834</v>
+        <v>7.454738616943359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.512839317321777</v>
+        <v>7.431724548339844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.29490852355957</v>
+        <v>7.113000869750977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.00962495803833</v>
+        <v>6.75499153137207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.785133361816406</v>
+        <v>5.630838871002197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.714616298675537</v>
+        <v>5.34329891204834</v>
       </c>
     </row>
   </sheetData>
@@ -3922,21 +3922,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.96367645263672</v>
+        <v>23.84222412109375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.31422424316406</v>
+        <v>21.53146362304688</v>
       </c>
     </row>
     <row r="4">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.30117416381836</v>
+        <v>11.22606086730957</v>
       </c>
     </row>
     <row r="5">
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.268078804016113</v>
+        <v>9.463527679443359</v>
       </c>
     </row>
     <row r="6">
@@ -3966,57 +3966,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.610330104827881</v>
+        <v>8.179004669189453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.246865749359131</v>
+        <v>4.891593456268311</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.000729560852051</v>
+        <v>3.57542896270752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.901915073394775</v>
+        <v>3.131885766983032</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.881623983383179</v>
+        <v>2.720226049423218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.68241286277771</v>
+        <v>2.424662590026855</v>
       </c>
     </row>
   </sheetData>
@@ -4053,101 +4053,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.99123096466064</v>
+        <v>19.27881813049316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.5754280090332</v>
+        <v>13.86432933807373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.618914604187012</v>
+        <v>8.343607902526855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.558595657348633</v>
+        <v>7.06728982925415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.402980327606201</v>
+        <v>6.952022552490234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.27391529083252</v>
+        <v>5.838417053222656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.263278961181641</v>
+        <v>5.423827171325684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.919738292694092</v>
+        <v>5.253104686737061</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.163989543914795</v>
+        <v>5.152349948883057</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.879898071289062</v>
+        <v>4.813186645507812</v>
       </c>
     </row>
   </sheetData>
@@ -4188,27 +4188,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.48432159423828</v>
+        <v>26.04352569580078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.14617919921875</v>
+        <v>9.649020195007324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.677563667297363</v>
+        <v>6.425470352172852</v>
       </c>
     </row>
     <row r="5">
@@ -4218,67 +4218,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.443112850189209</v>
+        <v>6.25056791305542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.160819053649902</v>
+        <v>6.059980869293213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.708290576934814</v>
+        <v>5.93748664855957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.423299789428711</v>
+        <v>5.806772708892822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.519582748413086</v>
+        <v>5.741182327270508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.479336261749268</v>
+        <v>4.922516822814941</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.094169139862061</v>
+        <v>4.664848804473877</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.70594310760498</v>
+        <v>13.74320411682129</v>
       </c>
     </row>
     <row r="3">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.33386039733887</v>
+        <v>13.25148677825928</v>
       </c>
     </row>
     <row r="4">
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.69376277923584</v>
+        <v>8.747310638427734</v>
       </c>
     </row>
     <row r="5">
@@ -4349,47 +4349,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.54901123046875</v>
+        <v>7.616367816925049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.537734031677246</v>
+        <v>7.528317928314209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.369999408721924</v>
+        <v>7.373690605163574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.40489387512207</v>
+        <v>6.665536880493164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.975618362426758</v>
+        <v>6.511743545532227</v>
       </c>
     </row>
     <row r="10">
@@ -4399,17 +4399,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.956916332244873</v>
+        <v>6.123968124389648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.401278495788574</v>
+        <v>5.916534900665283</v>
       </c>
     </row>
   </sheetData>
@@ -4450,17 +4450,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.80613327026367</v>
+        <v>22.33108329772949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.45077037811279</v>
+        <v>17.06804275512695</v>
       </c>
     </row>
     <row r="4">
@@ -4470,77 +4470,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.981451034545898</v>
+        <v>12.43808650970459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.824292182922363</v>
+        <v>10.14151096343994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.119407653808594</v>
+        <v>5.109788417816162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.609699726104736</v>
+        <v>4.961777687072754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.820353031158447</v>
+        <v>4.511736869812012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.776570320129395</v>
+        <v>3.784635305404663</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.27081298828125</v>
+        <v>3.766435861587524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.208149909973145</v>
+        <v>3.526521921157837</v>
       </c>
     </row>
   </sheetData>
@@ -4577,101 +4577,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.18808841705322</v>
+        <v>13.97970199584961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.314602851867676</v>
+        <v>9.018681526184082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.955283164978027</v>
+        <v>8.639316558837891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.713076591491699</v>
+        <v>8.213215827941895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.701601982116699</v>
+        <v>8.181889533996582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.377366542816162</v>
+        <v>8.094989776611328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.203360557556152</v>
+        <v>7.971925258636475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.39854907989502</v>
+        <v>7.866423606872559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.861148834228516</v>
+        <v>5.981199264526367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.795477390289307</v>
+        <v>5.895593166351318</v>
       </c>
     </row>
   </sheetData>
@@ -4708,101 +4708,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.15467834472656</v>
+        <v>17.97699737548828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.48648452758789</v>
+        <v>14.11979007720947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.615281581878662</v>
+        <v>10.04329586029053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.427654266357422</v>
+        <v>6.858087539672852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.080920219421387</v>
+        <v>6.257323741912842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.514692783355713</v>
+        <v>6.049310207366943</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.293988227844238</v>
+        <v>5.726224422454834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.292947292327881</v>
+        <v>5.58568286895752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.660725116729736</v>
+        <v>5.157926559448242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.651037693023682</v>
+        <v>5.079831600189209</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.49101066589355</v>
+        <v>19.75666427612305</v>
       </c>
     </row>
     <row r="3">
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.13765811920166</v>
+        <v>11.26759719848633</v>
       </c>
     </row>
     <row r="4">
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.952427864074707</v>
+        <v>9.790864944458008</v>
       </c>
     </row>
     <row r="5">
@@ -4873,7 +4873,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.268430233001709</v>
+        <v>8.056572914123535</v>
       </c>
     </row>
     <row r="6">
@@ -4883,47 +4883,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.146248817443848</v>
+        <v>6.753118991851807</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.862472057342529</v>
+        <v>5.473024368286133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.245792865753174</v>
+        <v>4.962804794311523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.806926250457764</v>
+        <v>4.697231769561768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.792613506317139</v>
+        <v>4.577766895294189</v>
       </c>
     </row>
     <row r="11">
@@ -4933,7 +4933,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.60528039932251</v>
+        <v>4.388588905334473</v>
       </c>
     </row>
   </sheetData>
@@ -4970,31 +4970,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.44304084777832</v>
+        <v>14.10986614227295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.56410884857178</v>
+        <v>12.21024894714355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.53167343139648</v>
+        <v>10.96765327453613</v>
       </c>
     </row>
     <row r="5">
@@ -5004,67 +5004,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.740653038024902</v>
+        <v>9.828542709350586</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.364424228668213</v>
+        <v>7.896796703338623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.252813339233398</v>
+        <v>7.38760232925415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.477916717529297</v>
+        <v>6.269549369812012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.125030517578125</v>
+        <v>5.157572746276855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.015015602111816</v>
+        <v>4.651218414306641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.999929428100586</v>
+        <v>4.623172283172607</v>
       </c>
     </row>
   </sheetData>
@@ -5101,21 +5101,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.360107421875</v>
+        <v>40.36931228637695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.81528663635254</v>
+        <v>12.75203800201416</v>
       </c>
     </row>
     <row r="4">
@@ -5125,77 +5125,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.149332046508789</v>
+        <v>6.996387958526611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.850907802581787</v>
+        <v>6.074036121368408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.796369075775146</v>
+        <v>5.691440105438232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.344734668731689</v>
+        <v>4.557825565338135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.843313932418823</v>
+        <v>3.948339939117432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.735207319259644</v>
+        <v>3.38600754737854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.211347341537476</v>
+        <v>2.936044931411743</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.137484073638916</v>
+        <v>2.672438383102417</v>
       </c>
     </row>
   </sheetData>
@@ -5232,81 +5232,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.53273487091064</v>
+        <v>12.50834178924561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.14018154144287</v>
+        <v>11.48425388336182</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.63063526153564</v>
+        <v>11.40419101715088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.340875625610352</v>
+        <v>10.92919826507568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.15617561340332</v>
+        <v>10.2282190322876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.678382873535156</v>
+        <v>9.33670711517334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.319408893585205</v>
+        <v>6.627387523651123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.88468074798584</v>
+        <v>5.516704559326172</v>
       </c>
     </row>
     <row r="10">
@@ -5316,17 +5316,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.26843786239624</v>
+        <v>5.221811294555664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.798328638076782</v>
+        <v>3.659031867980957</v>
       </c>
     </row>
   </sheetData>
@@ -5363,101 +5363,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.09097290039062</v>
+        <v>55.59529495239258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.12726211547852</v>
+        <v>15.51865673065186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.22947120666504</v>
+        <v>15.50393581390381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.340904235839844</v>
+        <v>11.37273788452148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2113880813121796</v>
+        <v>1.722793459892273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.333137512207031</v>
+        <v>0.2865804135799408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.274521350860596</v>
+        <v>3.492980718612671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.166300296783447</v>
+        <v>2.060411691665649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.096571445465088</v>
+        <v>1.91541588306427</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5187466740608215</v>
+        <v>0.9262914657592773</v>
       </c>
     </row>
   </sheetData>
@@ -5494,101 +5494,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.29346466064453</v>
+        <v>20.62760734558105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.49989318847656</v>
+        <v>15.77479648590088</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.890049934387207</v>
+        <v>14.27545356750488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.316596031188965</v>
+        <v>9.591614723205566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.206790924072266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.089434623718262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7.98499059677124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5.472101211547852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4.507254600524902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.54806661605835</v>
       </c>
     </row>
   </sheetData>
@@ -5602,7 +5602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5625,21 +5625,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.99822998046875</v>
+        <v>32.98374938964844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.14554691314697</v>
+        <v>28.40877532958984</v>
       </c>
     </row>
     <row r="4">
@@ -5649,17 +5649,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.591339111328125</v>
+        <v>8.580994606018066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.07685375213623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.766154766082764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9.264883995056152</v>
+      <c r="B7" t="n">
+        <v>4.887726306915283</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.875729560852051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.065895080566406</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.354118347167969</v>
       </c>
     </row>
   </sheetData>
@@ -5673,7 +5723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5696,41 +5746,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.43528747558594</v>
+        <v>35.44632339477539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.65400314331055</v>
+        <v>25.49843215942383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.31786251068115</v>
+        <v>14.51216793060303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.59284973144531</v>
+        <v>7.375658988952637</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.498432159423828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.982259750366211</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.833344697952271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.581468939781189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.197447776794434</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5903221964836121</v>
       </c>
     </row>
   </sheetData>
@@ -5771,97 +5881,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.2445011138916</v>
+        <v>36.48540115356445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.91878128051758</v>
+        <v>10.79176998138428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.08784294128418</v>
+        <v>9.109572410583496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.77591419219971</v>
+        <v>8.945941925048828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.272461414337158</v>
+        <v>8.399054527282715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.733287811279297</v>
+        <v>6.218180656433105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.39630389213562</v>
+        <v>3.780693531036377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.053966283798218</v>
+        <v>3.590688467025757</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.990756034851074</v>
+        <v>3.36940336227417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.323561072349548</v>
+        <v>3.199507236480713</v>
       </c>
     </row>
   </sheetData>
@@ -5898,101 +6008,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.60399436950684</v>
+        <v>24.26014518737793</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.8194580078125</v>
+        <v>22.22700881958008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.8998908996582</v>
+        <v>14.51109218597412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.94371223449707</v>
+        <v>9.6002197265625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.294866561889648</v>
+        <v>7.755265235900879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.008740901947021</v>
+        <v>6.276772975921631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.925771713256836</v>
+        <v>4.613007068634033</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.26951003074646</v>
+        <v>4.591593742370605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.137403011322021</v>
+        <v>2.329980134963989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.473181009292603</v>
+        <v>1.647098302841187</v>
       </c>
     </row>
   </sheetData>
@@ -6006,7 +6116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6029,41 +6139,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.76130676269531</v>
+        <v>31.21789360046387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.82565116882324</v>
+        <v>12.71860027313232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.54749870300293</v>
+        <v>10.98325634002686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.590311050415039</v>
+        <v>8.954571723937988</v>
       </c>
     </row>
     <row r="6">
@@ -6073,27 +6183,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.039008140563965</v>
+        <v>7.111647129058838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.842090249061584</v>
+        <v>6.856269359588623</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.394132971763611</v>
+        <v>5.680921077728271</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5.307764530181885</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.089261531829834</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.80748176574707</v>
       </c>
     </row>
   </sheetData>
@@ -6134,7 +6274,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.24813079833984</v>
+        <v>31.44584274291992</v>
       </c>
     </row>
     <row r="3">
@@ -6144,77 +6284,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.6516809463501</v>
+        <v>16.57511329650879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.807783126831055</v>
+        <v>7.379555702209473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.377840042114258</v>
+        <v>7.181124210357666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.047484874725342</v>
+        <v>7.176765918731689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.214066505432129</v>
+        <v>6.500608444213867</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.164362907409668</v>
+        <v>4.816386222839355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.916990756988525</v>
+        <v>4.2593994140625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.561287403106689</v>
+        <v>3.788166046142578</v>
       </c>
     </row>
     <row r="11">
@@ -6224,7 +6364,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.424181699752808</v>
+        <v>2.967134475708008</v>
       </c>
     </row>
   </sheetData>
@@ -6261,71 +6401,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.2168083190918</v>
+        <v>19.9509220123291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.07760810852051</v>
+        <v>15.86934185028076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.05213737487793</v>
+        <v>14.14169406890869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.597204208374023</v>
+        <v>12.48030567169189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.436500549316406</v>
+        <v>10.51158237457275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.42945671081543</v>
+        <v>6.985583305358887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.190275192260742</v>
+        <v>6.046903133392334</v>
       </c>
     </row>
     <row r="9">
@@ -6335,27 +6475,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5.537565231323242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4.601317882537842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.668642044067383</v>
       </c>
     </row>
   </sheetData>
@@ -6369,7 +6509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6396,7 +6536,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.56203079223633</v>
+        <v>26.80740737915039</v>
       </c>
     </row>
     <row r="3">
@@ -6406,7 +6546,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.15303230285645</v>
+        <v>23.81721305847168</v>
       </c>
     </row>
     <row r="4">
@@ -6416,7 +6556,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.38271903991699</v>
+        <v>22.26438522338867</v>
       </c>
     </row>
     <row r="5">
@@ -6426,17 +6566,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.37713241577148</v>
+        <v>14.10270214080811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5250861644744873</v>
+        <v>11.63649749755859</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.371795058250427</v>
       </c>
     </row>
   </sheetData>
@@ -6477,7 +6627,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.62444305419922</v>
+        <v>33.24604797363281</v>
       </c>
     </row>
     <row r="3">
@@ -6487,7 +6637,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.46387481689453</v>
+        <v>30.14330291748047</v>
       </c>
     </row>
     <row r="4">
@@ -6497,7 +6647,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.86953544616699</v>
+        <v>11.68239307403564</v>
       </c>
     </row>
     <row r="5">
@@ -6507,33 +6657,33 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.3442440032959</v>
+        <v>11.20555686950684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.697902679443359</v>
+        <v>10.13263416290283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.590070009231567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6543,7 +6693,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6553,7 +6703,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6563,7 +6713,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6715,7 +6865,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6725,7 +6875,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6735,7 +6885,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6745,7 +6895,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidad_para_realizar_el_mantenimiento_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6755,7 +6905,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_agricola_csat</t>
+          <t>vida_util_de_componentes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6765,7 +6915,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>generacion_y_transmision_de_datos_para_la_gestion_de_flotas_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6810,67 +6960,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.89952087402344</v>
+        <v>17.47281646728516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.81697654724121</v>
+        <v>16.56063079833984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.41199111938477</v>
+        <v>12.18905258178711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.85541820526123</v>
+        <v>7.650376796722412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.55665111541748</v>
+        <v>6.010476589202881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.035516262054443</v>
+        <v>5.60807991027832</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.289201259613037</v>
+        <v>5.389243125915527</v>
       </c>
     </row>
     <row r="9">
@@ -6880,27 +7030,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.140117645263672</v>
+        <v>4.947654724121094</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.442894458770752</v>
+        <v>4.527263164520264</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.402998447418213</v>
+        <v>4.162634372711182</v>
       </c>
     </row>
   </sheetData>
@@ -6941,77 +7091,77 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.92878818511963</v>
+        <v>18.44567489624023</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.647600173950195</v>
+        <v>14.59035301208496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.65153980255127</v>
+        <v>9.14096736907959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.414289474487305</v>
+        <v>6.410767078399658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.325418472290039</v>
+        <v>6.231789112091064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.098464488983154</v>
+        <v>6.220175743103027</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.757319927215576</v>
+        <v>6.143902778625488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.005615711212158</v>
+        <v>6.041138172149658</v>
       </c>
     </row>
     <row r="10">
@@ -7021,17 +7171,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.983095169067383</v>
+        <v>5.73666524887085</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.630686283111572</v>
+        <v>5.367126941680908</v>
       </c>
     </row>
   </sheetData>
@@ -7072,97 +7222,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.52373886108398</v>
+        <v>16.4589786529541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.13324642181396</v>
+        <v>12.74034404754639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.21019458770752</v>
+        <v>9.826808929443359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.560738563537598</v>
+        <v>8.328433990478516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.237335205078125</v>
+        <v>6.587550163269043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.027857780456543</v>
+        <v>5.976434230804443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.717580318450928</v>
+        <v>5.971492290496826</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.682547092437744</v>
+        <v>5.682135105133057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.337523937225342</v>
+        <v>5.461568355560303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.085792064666748</v>
+        <v>5.023935317993164</v>
       </c>
     </row>
   </sheetData>
@@ -7203,97 +7353,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.11813735961914</v>
+        <v>23.25664520263672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.66620635986328</v>
+        <v>11.74802684783936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.68154907226562</v>
+        <v>11.51623725891113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.273562431335449</v>
+        <v>8.964241027832031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.884621143341064</v>
+        <v>8.36557674407959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.658409595489502</v>
+        <v>6.526485919952393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.15926456451416</v>
+        <v>4.914003372192383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.10809326171875</v>
+        <v>4.884071826934814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.552474975585938</v>
+        <v>4.105392932891846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.526077747344971</v>
+        <v>4.104233264923096</v>
       </c>
     </row>
   </sheetData>
@@ -7330,21 +7480,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.74699592590332</v>
+        <v>13.25886058807373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.66704177856445</v>
+        <v>12.81435775756836</v>
       </c>
     </row>
     <row r="4">
@@ -7354,7 +7504,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.85071754455566</v>
+        <v>12.55338001251221</v>
       </c>
     </row>
     <row r="5">
@@ -7364,67 +7514,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.76266193389893</v>
+        <v>11.41923427581787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.581568717956543</v>
+        <v>9.020190238952637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.031712532043457</v>
+        <v>7.390546798706055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.259347915649414</v>
+        <v>6.322447776794434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.795773506164551</v>
+        <v>4.224639892578125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.811136722564697</v>
+        <v>4.191076755523682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.405400037765503</v>
+        <v>4.145040512084961</v>
       </c>
     </row>
   </sheetData>
@@ -7461,91 +7611,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.68169212341309</v>
+        <v>10.70750713348389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.3057861328125</v>
+        <v>9.916457176208496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.29386329650879</v>
+        <v>9.519596099853516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.02911567687988</v>
+        <v>9.324453353881836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.61647891998291</v>
+        <v>9.285118103027344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.021237373352051</v>
+        <v>8.102205276489258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.553520202636719</v>
+        <v>8.017135620117188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.86366081237793</v>
+        <v>7.004912376403809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.820319175720215</v>
+        <v>6.602468490600586</v>
       </c>
     </row>
     <row r="11">
@@ -7555,7 +7705,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.787573337554932</v>
+        <v>5.824734687805176</v>
       </c>
     </row>
   </sheetData>
@@ -7596,7 +7746,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.1148509979248</v>
+        <v>21.4238109588623</v>
       </c>
     </row>
     <row r="3">
@@ -7606,87 +7756,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.48850059509277</v>
+        <v>16.60942840576172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.15418004989624</v>
+        <v>7.970419406890869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.868374347686768</v>
+        <v>6.266470432281494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.334511280059814</v>
+        <v>5.853424072265625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.415570259094238</v>
+        <v>5.316753387451172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.218101978302002</v>
+        <v>4.991608619689941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.910541534423828</v>
+        <v>4.921549797058105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.573660850524902</v>
+        <v>4.54086971282959</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.456570148468018</v>
+        <v>4.493213176727295</v>
       </c>
     </row>
   </sheetData>
@@ -7727,7 +7877,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.21429061889648</v>
+        <v>19.3419075012207</v>
       </c>
     </row>
     <row r="3">
@@ -7737,27 +7887,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.56448841094971</v>
+        <v>9.96046257019043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.16336441040039</v>
+        <v>8.765384674072266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.270528793334961</v>
+        <v>8.558465957641602</v>
       </c>
     </row>
     <row r="6">
@@ -7767,57 +7917,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.470417976379395</v>
+        <v>8.466947555541992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.308684349060059</v>
+        <v>8.088663101196289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.160549163818359</v>
+        <v>6.621015071868896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.015265464782715</v>
+        <v>5.942232608795166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.409444332122803</v>
+        <v>5.369971752166748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.40949010848999</v>
+        <v>5.317566871643066</v>
       </c>
     </row>
   </sheetData>
@@ -7858,27 +8008,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.93505668640137</v>
+        <v>22.90481948852539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.4244441986084</v>
+        <v>15.30954551696777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.12410926818848</v>
+        <v>7.555888652801514</v>
       </c>
     </row>
     <row r="5">
@@ -7888,67 +8038,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.632450103759766</v>
+        <v>6.625060558319092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.08421802520752</v>
+        <v>5.810325622558594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.716808795928955</v>
+        <v>4.812682151794434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.371615886688232</v>
+        <v>4.621302604675293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.234375</v>
+        <v>4.569128513336182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.026156902313232</v>
+        <v>4.42086935043335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.758123159408569</v>
+        <v>4.173476696014404</v>
       </c>
     </row>
   </sheetData>
@@ -7989,57 +8139,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.68924140930176</v>
+        <v>13.48501300811768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.01780319213867</v>
+        <v>10.13258934020996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.80397415161133</v>
+        <v>9.746397018432617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.854462623596191</v>
+        <v>8.860430717468262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.532516956329346</v>
+        <v>7.728131771087646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.320067405700684</v>
+        <v>7.692738056182861</v>
       </c>
     </row>
     <row r="8">
@@ -8049,37 +8199,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.822977066040039</v>
+        <v>6.20170259475708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.318590641021729</v>
+        <v>6.134268760681152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.746351718902588</v>
+        <v>5.39302921295166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.353694915771484</v>
+        <v>5.196262836456299</v>
       </c>
     </row>
   </sheetData>
@@ -8120,7 +8270,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.59059143066406</v>
+        <v>13.97339820861816</v>
       </c>
     </row>
     <row r="3">
@@ -8130,7 +8280,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.99360179901123</v>
+        <v>13.70672416687012</v>
       </c>
     </row>
     <row r="4">
@@ -8140,77 +8290,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.26474189758301</v>
+        <v>10.97715377807617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.835992813110352</v>
+        <v>7.602777481079102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.380715847015381</v>
+        <v>6.342281341552734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.532364368438721</v>
+        <v>6.313826084136963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.15827465057373</v>
+        <v>6.254179954528809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.037137031555176</v>
+        <v>5.656512260437012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.911999702453613</v>
+        <v>5.593106746673584</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.510454177856445</v>
+        <v>5.449605941772461</v>
       </c>
     </row>
   </sheetData>
@@ -8251,7 +8401,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.3986644744873</v>
+        <v>13.40806198120117</v>
       </c>
     </row>
     <row r="3">
@@ -8261,7 +8411,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.87219429016113</v>
+        <v>12.11242580413818</v>
       </c>
     </row>
     <row r="4">
@@ -8271,7 +8421,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.986606597900391</v>
+        <v>12.04506874084473</v>
       </c>
     </row>
     <row r="5">
@@ -8281,67 +8431,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.820798397064209</v>
+        <v>7.632864952087402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.597376346588135</v>
+        <v>7.391013145446777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.222142696380615</v>
+        <v>7.366177558898926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.941007614135742</v>
+        <v>6.826408386230469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.305320739746094</v>
+        <v>5.914676666259766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.968517780303955</v>
+        <v>5.722187995910645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.930310726165771</v>
+        <v>5.197381496429443</v>
       </c>
     </row>
   </sheetData>
@@ -8378,21 +8528,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.78352546691895</v>
+        <v>24.2105598449707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.49746799468994</v>
+        <v>11.25869464874268</v>
       </c>
     </row>
     <row r="4">
@@ -8402,17 +8552,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.7811975479126</v>
+        <v>7.947226047515869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.61564254760742</v>
+        <v>7.073552131652832</v>
       </c>
     </row>
     <row r="6">
@@ -8422,57 +8572,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.24239444732666</v>
+        <v>6.932397842407227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.047722339630127</v>
+        <v>6.361781120300293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.026533603668213</v>
+        <v>5.517340183258057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.98137378692627</v>
+        <v>5.451629161834717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.688814163208008</v>
+        <v>5.121768951416016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.552712917327881</v>
+        <v>4.859826564788818</v>
       </c>
     </row>
   </sheetData>
@@ -8509,31 +8659,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.87114143371582</v>
+        <v>18.92537689208984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.11889266967773</v>
+        <v>16.01575088500977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.24071788787842</v>
+        <v>11.5533971786499</v>
       </c>
     </row>
     <row r="5">
@@ -8543,67 +8693,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.738156318664551</v>
+        <v>10.42845439910889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.88348388671875</v>
+        <v>6.966426849365234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.547479152679443</v>
+        <v>5.479238510131836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.231062889099121</v>
+        <v>4.970349311828613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.091022491455078</v>
+        <v>4.886195659637451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.887940883636475</v>
+        <v>4.060825347900391</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.368121147155762</v>
+        <v>4.033297538757324</v>
       </c>
     </row>
   </sheetData>
@@ -8644,97 +8794,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.54602813720703</v>
+        <v>18.94371223449707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.61806392669678</v>
+        <v>15.16419506072998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.57375240325928</v>
+        <v>8.6109619140625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.859317779541016</v>
+        <v>7.032505512237549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.92113208770752</v>
+        <v>6.993463039398193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.932310581207275</v>
+        <v>6.395427703857422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.751759052276611</v>
+        <v>5.289662837982178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.641451835632324</v>
+        <v>5.061917304992676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.182591915130615</v>
+        <v>4.890011310577393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.930544376373291</v>
+        <v>4.825024604797363</v>
       </c>
     </row>
   </sheetData>
@@ -8775,17 +8925,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.18408584594727</v>
+        <v>15.72695350646973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.42185211181641</v>
+        <v>11.87794971466064</v>
       </c>
     </row>
     <row r="4">
@@ -8795,17 +8945,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.03677082061768</v>
+        <v>10.74285888671875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.877866744995117</v>
+        <v>10.03251266479492</v>
       </c>
     </row>
     <row r="6">
@@ -8815,57 +8965,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.765876293182373</v>
+        <v>10.0278902053833</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.689568996429443</v>
+        <v>7.310102939605713</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.655092716217041</v>
+        <v>7.087291240692139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.064992427825928</v>
+        <v>6.939088344573975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.638114929199219</v>
+        <v>4.56869649887085</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.234775066375732</v>
+        <v>3.642757892608643</v>
       </c>
     </row>
   </sheetData>
@@ -8906,7 +9056,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.96184158325195</v>
+        <v>21.83924674987793</v>
       </c>
     </row>
     <row r="3">
@@ -8916,7 +9066,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.92029190063477</v>
+        <v>11.59891033172607</v>
       </c>
     </row>
     <row r="4">
@@ -8926,77 +9076,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.394049644470215</v>
+        <v>9.514429092407227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.668583869934082</v>
+        <v>6.201487064361572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.806087493896484</v>
+        <v>5.839446067810059</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.564966678619385</v>
+        <v>5.720317363739014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.920748710632324</v>
+        <v>5.573021411895752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.545436382293701</v>
+        <v>4.575447082519531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.526582717895508</v>
+        <v>4.552457332611084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.457097053527832</v>
+        <v>4.500197410583496</v>
       </c>
     </row>
   </sheetData>
@@ -9037,7 +9187,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.10002994537354</v>
+        <v>12.01283073425293</v>
       </c>
     </row>
     <row r="3">
@@ -9047,57 +9197,57 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.469857215881348</v>
+        <v>9.335902214050293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.766739845275879</v>
+        <v>7.53240442276001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.589521408081055</v>
+        <v>7.315738677978516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.434104442596436</v>
+        <v>7.223962306976318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.083970069885254</v>
+        <v>7.179143905639648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.665028095245361</v>
+        <v>7.161170959472656</v>
       </c>
     </row>
     <row r="9">
@@ -9107,27 +9257,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.605205535888672</v>
+        <v>6.845266342163086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.396105766296387</v>
+        <v>6.560114860534668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.196240901947021</v>
+        <v>5.887439250946045</v>
       </c>
     </row>
   </sheetData>
@@ -9164,11 +9314,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.79095840454102</v>
+        <v>24.39419937133789</v>
       </c>
     </row>
     <row r="3">
@@ -9178,77 +9328,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.39360237121582</v>
+        <v>16.84919548034668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.77580261230469</v>
+        <v>16.2273998260498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.05238914489746</v>
+        <v>15.40213394165039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.896276950836182</v>
+        <v>13.6876392364502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.0080246925354</v>
+        <v>11.73777675628662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.007502794265747</v>
+        <v>0.7458237409591675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8617671132087708</v>
+        <v>0.5167461633682251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2136779427528381</v>
+        <v>0.4390833079814911</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
+++ b/Resultados/Top_Variaveis/Top_Variaveis_Modelos.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.89649772644043</v>
+        <v>25.59645843505859</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.8663969039917</v>
+        <v>12.10853862762451</v>
       </c>
     </row>
     <row r="4">
@@ -540,77 +540,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.961106300354</v>
+        <v>11.15780067443848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.662025928497314</v>
+        <v>8.638941764831543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.27715015411377</v>
+        <v>5.360113620758057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidad_operativa_hectareas_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.043355941772461</v>
+        <v>5.111110687255859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.951576232910156</v>
+        <v>4.625718593597412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidad_de_operacion_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.818417310714722</v>
+        <v>3.308374166488647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.813735008239746</v>
+        <v>3.171179533004761</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.233084917068481</v>
+        <v>2.919543981552124</v>
       </c>
     </row>
   </sheetData>
@@ -651,97 +651,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.22714614868164</v>
+        <v>34.80155563354492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.52303981781006</v>
+        <v>18.53479766845703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.13141822814941</v>
+        <v>13.48264408111572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.999636650085449</v>
+        <v>9.974814414978027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.442178726196289</v>
+        <v>9.233416557312012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.706725120544434</v>
+        <v>4.206033706665039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.15296745300293</v>
+        <v>3.24137020111084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.928468465805054</v>
+        <v>2.969984292984009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.88842511177063</v>
+        <v>1.65349268913269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustible_litros_por_hectarea_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.647204160690308</v>
       </c>
     </row>
   </sheetData>
@@ -778,81 +778,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.84820365905762</v>
+        <v>19.24531555175781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.28935432434082</v>
+        <v>12.64075469970703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.10975456237793</v>
+        <v>12.22879123687744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.811954498291016</v>
+        <v>10.24984931945801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.169702529907227</v>
+        <v>10.07857608795166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.144235134124756</v>
+        <v>9.55255126953125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.160447597503662</v>
+        <v>7.348762512207031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.955357789993286</v>
+        <v>5.58405065536499</v>
       </c>
     </row>
     <row r="10">
@@ -862,17 +862,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.9466872215271</v>
+        <v>5.280560970306396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.683266162872314</v>
+        <v>3.776814460754395</v>
       </c>
     </row>
   </sheetData>
@@ -909,101 +909,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.34247207641602</v>
+        <v>25.38983535766602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.56956100463867</v>
+        <v>21.82042503356934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.972878456115723</v>
+        <v>12.57243156433105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.848682403564453</v>
+        <v>12.26465225219727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.373125076293945</v>
+        <v>11.6346549987793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.613536834716797</v>
+        <v>6.256434440612793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.211328983306885</v>
+        <v>3.530360698699951</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.10667610168457</v>
+        <v>3.383188962936401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.648988723754883</v>
+        <v>1.942088961601257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.201501369476318</v>
+        <v>0.6755770444869995</v>
       </c>
     </row>
   </sheetData>
@@ -1040,71 +1040,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.53778266906738</v>
+        <v>33.13253402709961</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.55579948425293</v>
+        <v>19.76920509338379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.61410140991211</v>
+        <v>11.48345565795898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.06786155700684</v>
+        <v>9.422717094421387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.77481651306152</v>
+        <v>7.782661914825439</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.61724281311035</v>
+        <v>5.183357715606689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.989058971405029</v>
+        <v>4.476944446563721</v>
       </c>
     </row>
     <row r="9">
@@ -1114,27 +1114,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.076758861541748</v>
+        <v>2.606759309768677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.671686410903931</v>
+        <v>1.794695258140564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.995179057121277</v>
+        <v>1.365134000778198</v>
       </c>
     </row>
   </sheetData>
@@ -1171,101 +1171,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.7449893951416</v>
+        <v>23.32084846496582</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.26756381988525</v>
+        <v>22.10086822509766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.15948390960693</v>
+        <v>8.886396408081055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.37325859069824</v>
+        <v>7.931225776672363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.77180290222168</v>
+        <v>6.913802623748779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.796313285827637</v>
+        <v>6.675907135009766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.495743751525879</v>
+        <v>6.302556991577148</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.048736572265625</v>
+        <v>4.392128944396973</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.865722179412842</v>
+        <v>4.199952602386475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.301017284393311</v>
+        <v>3.64846396446228</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.64529991149902</v>
+        <v>19.35961532592773</v>
       </c>
     </row>
     <row r="3">
@@ -1316,87 +1316,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.76285171508789</v>
+        <v>14.40350437164307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.518159866333008</v>
+        <v>10.18519306182861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.405560493469238</v>
+        <v>7.364900588989258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.859802722930908</v>
+        <v>6.669764995574951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.748356342315674</v>
+        <v>6.202574253082275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.571274280548096</v>
+        <v>5.929859638214111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.277511596679688</v>
+        <v>5.625380039215088</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.177842140197754</v>
+        <v>5.269170761108398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.616357326507568</v>
+        <v>4.528159618377686</v>
       </c>
     </row>
   </sheetData>
@@ -1437,97 +1437,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.44384574890137</v>
+        <v>17.69399261474609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.45414447784424</v>
+        <v>13.43954944610596</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.185302734375</v>
+        <v>10.63454151153564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.418868064880371</v>
+        <v>9.676853179931641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.221803665161133</v>
+        <v>9.054664611816406</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.884945869445801</v>
+        <v>8.323519706726074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.564370155334473</v>
+        <v>5.850020885467529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.484626293182373</v>
+        <v>5.109089851379395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.413798332214355</v>
+        <v>5.032439708709717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.38273811340332</v>
+        <v>4.846609115600586</v>
       </c>
     </row>
   </sheetData>
@@ -1564,31 +1564,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.21955299377441</v>
+        <v>23.44826889038086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.39564323425293</v>
+        <v>18.759033203125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.62705135345459</v>
+        <v>8.163086891174316</v>
       </c>
     </row>
     <row r="5">
@@ -1598,67 +1598,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.078900337219238</v>
+        <v>7.844644069671631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.292129516601562</v>
+        <v>5.625166893005371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.510459423065186</v>
+        <v>5.558254718780518</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.022700786590576</v>
+        <v>5.49830150604248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.703298807144165</v>
+        <v>3.514363288879395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.577342510223389</v>
+        <v>3.385328531265259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.500720977783203</v>
+        <v>3.011695384979248</v>
       </c>
     </row>
   </sheetData>
@@ -1695,101 +1695,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.58657169342041</v>
+        <v>10.93555927276611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.04568958282471</v>
+        <v>10.79098892211914</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.72999954223633</v>
+        <v>9.790908813476562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.810552597045898</v>
+        <v>8.766687393188477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.930779457092285</v>
+        <v>8.752301216125488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.849961757659912</v>
+        <v>8.249599456787109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.810805320739746</v>
+        <v>7.48755407333374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.789477348327637</v>
+        <v>6.556484222412109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.084622859954834</v>
+        <v>5.853622913360596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.751741886138916</v>
+        <v>5.245520114898682</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.95098876953125</v>
+        <v>17.74672508239746</v>
       </c>
     </row>
     <row r="3">
@@ -1840,77 +1840,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.727118492126465</v>
+        <v>12.30729103088379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.448457717895508</v>
+        <v>6.679394245147705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.752442359924316</v>
+        <v>6.575507164001465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.016777992248535</v>
+        <v>6.423050880432129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.622441291809082</v>
+        <v>5.867094039916992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.512083053588867</v>
+        <v>5.779932975769043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.220110416412354</v>
+        <v>5.641917705535889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.999434947967529</v>
+        <v>4.708432197570801</v>
       </c>
     </row>
     <row r="11">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.70301342010498</v>
+        <v>4.703351497650146</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.69229698181152</v>
+        <v>26.31594276428223</v>
       </c>
     </row>
     <row r="3">
@@ -1971,87 +1971,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.04875469207764</v>
+        <v>16.79233741760254</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.874377250671387</v>
+        <v>9.958765029907227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.403133392333984</v>
+        <v>6.832358837127686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.580231666564941</v>
+        <v>6.028529167175293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.077168464660645</v>
+        <v>5.852265357971191</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.012436866760254</v>
+        <v>5.734987735748291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.135567665100098</v>
+        <v>5.048033237457275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.996131896972656</v>
+        <v>3.039976596832275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.901936054229736</v>
+        <v>2.938189268112183</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.21206855773926</v>
+        <v>21.91039085388184</v>
       </c>
     </row>
     <row r="3">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.59636402130127</v>
+        <v>10.92434024810791</v>
       </c>
     </row>
     <row r="4">
@@ -2112,37 +2112,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.21216869354248</v>
+        <v>10.60201644897461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.542551040649414</v>
+        <v>9.448874473571777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.094931602478027</v>
+        <v>6.880931377410889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.315352916717529</v>
+        <v>5.566040515899658</v>
       </c>
     </row>
     <row r="8">
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.306321144104004</v>
+        <v>5.094515323638916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.297623634338379</v>
+        <v>5.059196949005127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.477924823760986</v>
+        <v>4.746884346008301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.347746849060059</v>
+        <v>4.643874645233154</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.08448028564453</v>
+        <v>17.09649276733398</v>
       </c>
     </row>
     <row r="3">
@@ -2233,87 +2233,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.85107421875</v>
+        <v>13.70312309265137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.27292060852051</v>
+        <v>10.80509853363037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.038041114807129</v>
+        <v>7.490787506103516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.342836380004883</v>
+        <v>7.414890766143799</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.237871646881104</v>
+        <v>6.314804553985596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.707350730895996</v>
+        <v>4.901059627532959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.831416606903076</v>
+        <v>4.796436309814453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.864888429641724</v>
+        <v>4.728547096252441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.46757698059082</v>
+        <v>3.977871417999268</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.40144348144531</v>
+        <v>21.31435775756836</v>
       </c>
     </row>
     <row r="3">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.20409488677979</v>
+        <v>12.59522438049316</v>
       </c>
     </row>
     <row r="4">
@@ -2374,77 +2374,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.83442497253418</v>
+        <v>9.145989418029785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.60851001739502</v>
+        <v>6.778435230255127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.102394104003906</v>
+        <v>6.524313449859619</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.438594341278076</v>
+        <v>6.274167537689209</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.060806751251221</v>
+        <v>5.556631565093994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.72544002532959</v>
+        <v>4.989307880401611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.572322368621826</v>
+        <v>4.421733856201172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.337647914886475</v>
+        <v>4.156009674072266</v>
       </c>
     </row>
   </sheetData>
@@ -2485,37 +2485,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.68026542663574</v>
+        <v>12.57058334350586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.69763565063477</v>
+        <v>12.56465339660645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.751141548156738</v>
+        <v>11.42758178710938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.341516017913818</v>
+        <v>8.151324272155762</v>
       </c>
     </row>
     <row r="6">
@@ -2525,17 +2525,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.496826648712158</v>
+        <v>8.064380645751953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.493617534637451</v>
+        <v>6.122956275939941</v>
       </c>
     </row>
     <row r="8">
@@ -2545,37 +2545,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.021049499511719</v>
+        <v>6.010074138641357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.969231605529785</v>
+        <v>4.780124664306641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.967074871063232</v>
+        <v>4.391466617584229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.357547283172607</v>
+        <v>4.169984340667725</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.67572784423828</v>
+        <v>13.97197532653809</v>
       </c>
     </row>
     <row r="3">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.08305263519287</v>
+        <v>11.52179718017578</v>
       </c>
     </row>
     <row r="4">
@@ -2636,47 +2636,47 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.227849960327148</v>
+        <v>10.24334907531738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.52379035949707</v>
+        <v>8.144485473632812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.772871017456055</v>
+        <v>7.910853385925293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.792255401611328</v>
+        <v>6.636216640472412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.693767547607422</v>
+        <v>6.433658123016357</v>
       </c>
     </row>
     <row r="9">
@@ -2686,27 +2686,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.599202156066895</v>
+        <v>5.792242050170898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.197862148284912</v>
+        <v>5.2014479637146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.683765411376953</v>
+        <v>5.181852340698242</v>
       </c>
     </row>
   </sheetData>
@@ -2743,21 +2743,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.93035697937012</v>
+        <v>21.58124923706055</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.39087677001953</v>
+        <v>18.08114814758301</v>
       </c>
     </row>
     <row r="4">
@@ -2767,77 +2767,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.493984222412109</v>
+        <v>8.767587661743164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.886283874511719</v>
+        <v>7.958426952362061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.7839035987854</v>
+        <v>6.043443202972412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.615736484527588</v>
+        <v>5.504245758056641</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.071775436401367</v>
+        <v>5.410039901733398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.705596923828125</v>
+        <v>4.991040706634521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.653576374053955</v>
+        <v>4.255169868469238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.077407598495483</v>
+        <v>3.159153938293457</v>
       </c>
     </row>
   </sheetData>
@@ -2878,97 +2878,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.96082019805908</v>
+        <v>16.60469245910645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.62513828277588</v>
+        <v>13.25285148620605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.623067855834961</v>
+        <v>9.243411064147949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.181613922119141</v>
+        <v>9.212454795837402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.733450889587402</v>
+        <v>7.304800510406494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.324923515319824</v>
+        <v>6.878810882568359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.307793140411377</v>
+        <v>6.75111722946167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.148710250854492</v>
+        <v>5.201996326446533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.848121643066406</v>
+        <v>4.879757404327393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.565221786499023</v>
+        <v>4.27587890625</v>
       </c>
     </row>
   </sheetData>
@@ -3009,97 +3009,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.37823295593262</v>
+        <v>31.48052406311035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.11484909057617</v>
+        <v>14.15622997283936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.42649936676025</v>
+        <v>11.10429191589355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.201840400695801</v>
+        <v>8.800360679626465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.570992469787598</v>
+        <v>6.595372200012207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.133689403533936</v>
+        <v>3.337746858596802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.967593669891357</v>
+        <v>3.316025495529175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.905171155929565</v>
+        <v>3.309357643127441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.749660015106201</v>
+        <v>3.014347791671753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.654962778091431</v>
+        <v>2.721594572067261</v>
       </c>
     </row>
   </sheetData>
@@ -3140,87 +3140,87 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.90303421020508</v>
+        <v>38.41385650634766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.90829467773438</v>
+        <v>12.12980651855469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.66752815246582</v>
+        <v>9.488567352294922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.678309440612793</v>
+        <v>9.19412899017334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.596107006072998</v>
+        <v>8.535229682922363</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.806120872497559</v>
+        <v>4.725780010223389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.973323822021484</v>
+        <v>3.462335824966431</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.733660221099854</v>
+        <v>2.648268222808838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.166891574859619</v>
+        <v>2.497137784957886</v>
       </c>
     </row>
     <row r="11">
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.799986362457275</v>
+        <v>1.714492440223694</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.95964622497559</v>
+        <v>23.1159725189209</v>
       </c>
     </row>
     <row r="3">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.99741363525391</v>
+        <v>22.43332099914551</v>
       </c>
     </row>
     <row r="4">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.03316497802734</v>
+        <v>12.36646175384521</v>
       </c>
     </row>
     <row r="5">
@@ -3301,27 +3301,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.188549995422363</v>
+        <v>8.596118927001953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.58884334564209</v>
+        <v>5.32883358001709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.101581573486328</v>
+        <v>4.283919334411621</v>
       </c>
     </row>
     <row r="8">
@@ -3331,37 +3331,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.436565399169922</v>
+        <v>3.741240978240967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.655831813812256</v>
+        <v>3.448439359664917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.608180284500122</v>
+        <v>2.671811103820801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.522082805633545</v>
+        <v>2.634471893310547</v>
       </c>
     </row>
   </sheetData>
@@ -3398,71 +3398,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.2839527130127</v>
+        <v>15.18163967132568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.36013317108154</v>
+        <v>14.14818954467773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.11905860900879</v>
+        <v>11.99033737182617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.595370292663574</v>
+        <v>11.09345531463623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.195106983184814</v>
+        <v>8.277717590332031</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.244959354400635</v>
+        <v>6.152071475982666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.71238374710083</v>
+        <v>5.772071838378906</v>
       </c>
     </row>
     <row r="9">
@@ -3472,27 +3472,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.585453510284424</v>
+        <v>4.32187557220459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.394911289215088</v>
+        <v>3.839898109436035</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.77767014503479</v>
+        <v>3.745263338088989</v>
       </c>
     </row>
   </sheetData>
@@ -3533,97 +3533,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.42953968048096</v>
+        <v>16.6873836517334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.30485343933105</v>
+        <v>13.1839485168457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.00946426391602</v>
+        <v>13.14900207519531</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.424405097961426</v>
+        <v>8.380378723144531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.196428298950195</v>
+        <v>7.432226657867432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.939611911773682</v>
+        <v>6.337985515594482</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.814513683319092</v>
+        <v>6.283979892730713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.782270908355713</v>
+        <v>6.098768711090088</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.217176914215088</v>
+        <v>4.62420129776001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.929229736328125</v>
+        <v>4.144107818603516</v>
       </c>
     </row>
   </sheetData>
@@ -3664,67 +3664,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.83451175689697</v>
+        <v>15.02667331695557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.25830173492432</v>
+        <v>11.18775177001953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.960934638977051</v>
+        <v>10.62211799621582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.529778003692627</v>
+        <v>9.831075668334961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.459665298461914</v>
+        <v>7.65524435043335</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.237888336181641</v>
+        <v>7.303544044494629</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.001543045043945</v>
+        <v>6.699571132659912</v>
       </c>
     </row>
     <row r="9">
@@ -3734,27 +3734,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.636325836181641</v>
+        <v>6.158082008361816</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.291257381439209</v>
+        <v>4.836183547973633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.07677698135376</v>
+        <v>4.624099731445312</v>
       </c>
     </row>
   </sheetData>
@@ -3795,17 +3795,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.24517250061035</v>
+        <v>16.72224044799805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.23800182342529</v>
+        <v>14.98699951171875</v>
       </c>
     </row>
     <row r="4">
@@ -3815,67 +3815,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.8749098777771</v>
+        <v>12.46241283416748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.563102245330811</v>
+        <v>11.84181022644043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.454738616943359</v>
+        <v>7.985869884490967</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.431724548339844</v>
+        <v>7.346656799316406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.113000869750977</v>
+        <v>5.866513729095459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.75499153137207</v>
+        <v>4.835063457489014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.630838871002197</v>
+        <v>3.898766279220581</v>
       </c>
     </row>
     <row r="11">
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.34329891204834</v>
+        <v>3.05840539932251</v>
       </c>
     </row>
   </sheetData>
@@ -3922,11 +3922,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.84222412109375</v>
+        <v>18.33377265930176</v>
       </c>
     </row>
     <row r="3">
@@ -3936,37 +3936,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.53146362304688</v>
+        <v>14.37963581085205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.22606086730957</v>
+        <v>12.01500511169434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.463527679443359</v>
+        <v>7.543385982513428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.179004669189453</v>
+        <v>7.260776996612549</v>
       </c>
     </row>
     <row r="7">
@@ -3976,27 +3976,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.891593456268311</v>
+        <v>5.907454490661621</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.57542896270752</v>
+        <v>5.277437686920166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.131885766983032</v>
+        <v>4.663840293884277</v>
       </c>
     </row>
     <row r="10">
@@ -4006,17 +4006,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.720226049423218</v>
+        <v>4.355830192565918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.424662590026855</v>
+        <v>4.054491996765137</v>
       </c>
     </row>
   </sheetData>
@@ -4053,101 +4053,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.27881813049316</v>
+        <v>22.01652336120605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.86432933807373</v>
+        <v>18.21223449707031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.343607902526855</v>
+        <v>12.37589073181152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.06728982925415</v>
+        <v>12.21824836730957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.952022552490234</v>
+        <v>5.415202140808105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.838417053222656</v>
+        <v>4.925265789031982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.423827171325684</v>
+        <v>4.821605682373047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.253104686737061</v>
+        <v>3.744022607803345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.152349948883057</v>
+        <v>3.714182138442993</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.813186645507812</v>
+        <v>3.685102224349976</v>
       </c>
     </row>
   </sheetData>
@@ -4188,97 +4188,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.04352569580078</v>
+        <v>25.0005931854248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.649020195007324</v>
+        <v>9.719253540039062</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.425470352172852</v>
+        <v>8.670071601867676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.25056791305542</v>
+        <v>8.509912490844727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.059980869293213</v>
+        <v>6.264585971832275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.93748664855957</v>
+        <v>5.859251499176025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.806772708892822</v>
+        <v>5.538939476013184</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.741182327270508</v>
+        <v>5.086315155029297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.922516822814941</v>
+        <v>5.082146167755127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.664848804473877</v>
+        <v>4.701594829559326</v>
       </c>
     </row>
   </sheetData>
@@ -4319,7 +4319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.74320411682129</v>
+        <v>19.13344573974609</v>
       </c>
     </row>
     <row r="3">
@@ -4329,77 +4329,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.25148677825928</v>
+        <v>14.94731712341309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.747310638427734</v>
+        <v>8.239901542663574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.616367816925049</v>
+        <v>7.816574573516846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.528317928314209</v>
+        <v>7.42553186416626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.373690605163574</v>
+        <v>7.393908500671387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.665536880493164</v>
+        <v>7.34117603302002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.511743545532227</v>
+        <v>7.006643772125244</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.123968124389648</v>
+        <v>6.932354927062988</v>
       </c>
     </row>
     <row r="11">
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.916534900665283</v>
+        <v>4.506031036376953</v>
       </c>
     </row>
   </sheetData>
@@ -4446,21 +4446,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.33108329772949</v>
+        <v>14.45339584350586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.06804275512695</v>
+        <v>11.67582416534424</v>
       </c>
     </row>
     <row r="4">
@@ -4470,77 +4470,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.43808650970459</v>
+        <v>10.02109336853027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.14151096343994</v>
+        <v>9.550175666809082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.109788417816162</v>
+        <v>7.925294399261475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>idoneidad_para_diferentes_operaciones_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.961777687072754</v>
+        <v>6.022975921630859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.511736869812012</v>
+        <v>4.657121658325195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.784635305404663</v>
+        <v>4.392737865447998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.766435861587524</v>
+        <v>4.346790313720703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.526521921157837</v>
+        <v>4.256767272949219</v>
       </c>
     </row>
   </sheetData>
@@ -4581,17 +4581,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.97970199584961</v>
+        <v>16.57473564147949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.018681526184082</v>
+        <v>16.14645385742188</v>
       </c>
     </row>
     <row r="4">
@@ -4601,37 +4601,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.639316558837891</v>
+        <v>12.13242721557617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.213215827941895</v>
+        <v>10.59270191192627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.181889533996582</v>
+        <v>8.235052108764648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.094989776611328</v>
+        <v>7.656716346740723</v>
       </c>
     </row>
     <row r="8">
@@ -4641,37 +4641,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.971925258636475</v>
+        <v>5.528793334960938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.866423606872559</v>
+        <v>4.705508232116699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.981199264526367</v>
+        <v>4.042490482330322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.895593166351318</v>
+        <v>3.807559251785278</v>
       </c>
     </row>
   </sheetData>
@@ -4708,31 +4708,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.97699737548828</v>
+        <v>19.00499153137207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.11979007720947</v>
+        <v>12.92794322967529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.04329586029053</v>
+        <v>8.369848251342773</v>
       </c>
     </row>
     <row r="5">
@@ -4742,67 +4742,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.858087539672852</v>
+        <v>6.735012531280518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.257323741912842</v>
+        <v>6.323032855987549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.049310207366943</v>
+        <v>6.177915096282959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.726224422454834</v>
+        <v>5.426594257354736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.58568286895752</v>
+        <v>5.015614032745361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.157926559448242</v>
+        <v>5.010179996490479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.079831600189209</v>
+        <v>4.659124851226807</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.75666427612305</v>
+        <v>18.60304260253906</v>
       </c>
     </row>
     <row r="3">
@@ -4853,87 +4853,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.26759719848633</v>
+        <v>12.0709114074707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.790864944458008</v>
+        <v>11.52770709991455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.056572914123535</v>
+        <v>11.37283325195312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.753118991851807</v>
+        <v>7.230644702911377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.473024368286133</v>
+        <v>5.581346035003662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.962804794311523</v>
+        <v>5.452992916107178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.697231769561768</v>
+        <v>5.202860355377197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.577766895294189</v>
+        <v>4.804281711578369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.388588905334473</v>
+        <v>4.149338722229004</v>
       </c>
     </row>
   </sheetData>
@@ -4974,97 +4974,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.10986614227295</v>
+        <v>15.74816989898682</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.21024894714355</v>
+        <v>12.83497333526611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.96765327453613</v>
+        <v>11.34913444519043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.828542709350586</v>
+        <v>9.89174747467041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.896796703338623</v>
+        <v>9.067076683044434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.38760232925415</v>
+        <v>7.744164943695068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.269549369812012</v>
+        <v>6.918701648712158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.157572746276855</v>
+        <v>5.34119176864624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.651218414306641</v>
+        <v>4.981163024902344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.623172283172607</v>
+        <v>3.590808153152466</v>
       </c>
     </row>
   </sheetData>
@@ -5101,101 +5101,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.36931228637695</v>
+        <v>25.04335403442383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.75203800201416</v>
+        <v>13.17113971710205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.996387958526611</v>
+        <v>9.344840049743652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.074036121368408</v>
+        <v>8.452591896057129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.691440105438232</v>
+        <v>5.769552230834961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.557825565338135</v>
+        <v>5.756031036376953</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.948339939117432</v>
+        <v>5.102151393890381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.38600754737854</v>
+        <v>4.432626724243164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.936044931411743</v>
+        <v>4.374586582183838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.672438383102417</v>
+        <v>4.186239242553711</v>
       </c>
     </row>
   </sheetData>
@@ -5236,27 +5236,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.50834178924561</v>
+        <v>15.18745613098145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.48425388336182</v>
+        <v>12.16794013977051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.40419101715088</v>
+        <v>11.32597064971924</v>
       </c>
     </row>
     <row r="5">
@@ -5266,47 +5266,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.92919826507568</v>
+        <v>10.59854221343994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.2282190322876</v>
+        <v>7.355733394622803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.33670711517334</v>
+        <v>7.344025611877441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.627387523651123</v>
+        <v>6.086284637451172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.516704559326172</v>
+        <v>5.20525074005127</v>
       </c>
     </row>
     <row r="10">
@@ -5316,17 +5316,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.221811294555664</v>
+        <v>5.058906078338623</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.659031867980957</v>
+        <v>4.372503757476807</v>
       </c>
     </row>
   </sheetData>
@@ -5367,97 +5367,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.59529495239258</v>
+        <v>14.15621662139893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.51865673065186</v>
+        <v>13.21039962768555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.50393581390381</v>
+        <v>12.38052368164062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.37273788452148</v>
+        <v>10.77781200408936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.722793459892273</v>
+        <v>8.353006362915039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2865804135799408</v>
+        <v>7.973745346069336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.492980718612671</v>
+        <v>7.705159664154053</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.060411691665649</v>
+        <v>7.076549530029297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.91541588306427</v>
+        <v>6.654952526092529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9262914657592773</v>
+        <v>5.327559471130371</v>
       </c>
     </row>
   </sheetData>
@@ -5494,101 +5494,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.62760734558105</v>
+        <v>21.1710147857666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.77479648590088</v>
+        <v>18.13100051879883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.27545356750488</v>
+        <v>14.96346282958984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.591614723205566</v>
+        <v>14.51171016693115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.206790924072266</v>
+        <v>6.927063465118408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.089434623718262</v>
+        <v>4.669302940368652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.98499059677124</v>
+        <v>3.976529121398926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.472101211547852</v>
+        <v>3.542559146881104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.507254600524902</v>
+        <v>3.489534139633179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.54806661605835</v>
+        <v>3.213026762008667</v>
       </c>
     </row>
   </sheetData>
@@ -5629,57 +5629,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.98374938964844</v>
+        <v>26.16764640808105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.40877532958984</v>
+        <v>15.58450317382812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.580994606018066</v>
+        <v>15.5836238861084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.07685375213623</v>
+        <v>11.69257640838623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.766154766082764</v>
+        <v>9.659649848937988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.887726306915283</v>
+        <v>8.254617691040039</v>
       </c>
     </row>
     <row r="8">
@@ -5689,27 +5689,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.875729560852051</v>
+        <v>5.945603370666504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.065895080566406</v>
+        <v>4.606559753417969</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.354118347167969</v>
+        <v>2.505225419998169</v>
       </c>
     </row>
   </sheetData>
@@ -5746,101 +5746,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.44632339477539</v>
+        <v>23.62493705749512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.49843215942383</v>
+        <v>18.92471313476562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.51216793060303</v>
+        <v>16.23701858520508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.375658988952637</v>
+        <v>13.77351856231689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.498432159423828</v>
+        <v>9.667635917663574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.982259750366211</v>
+        <v>6.177087783813477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.833344697952271</v>
+        <v>2.627872705459595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.581468939781189</v>
+        <v>2.242679357528687</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.197447776794434</v>
+        <v>1.493057370185852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5903221964836121</v>
+        <v>1.440827965736389</v>
       </c>
     </row>
   </sheetData>
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.48540115356445</v>
+        <v>32.77084350585938</v>
       </c>
     </row>
     <row r="3">
@@ -5891,87 +5891,87 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.79176998138428</v>
+        <v>26.05389976501465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.109572410583496</v>
+        <v>23.49710845947266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.945941925048828</v>
+        <v>17.67814826965332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.399054527282715</v>
+        <v>4.355583667755127</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.218180656433105</v>
+        <v>2.526454210281372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.780693531036377</v>
+        <v>1.524526238441467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.590688467025757</v>
+        <v>0.3504787683486938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.36940336227417</v>
+        <v>0.3429765403270721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.199507236480713</v>
+        <v>0.1384709775447845</v>
       </c>
     </row>
   </sheetData>
@@ -6008,101 +6008,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.26014518737793</v>
+        <v>78.73561859130859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.22700881958008</v>
+        <v>11.03415679931641</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.51109218597412</v>
+        <v>9.268773078918457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.6002197265625</v>
+        <v>0.9614478945732117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.755265235900879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.276772975921631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.613007068634033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.591593742370605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.329980134963989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.647098302841187</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6143,17 +6143,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.21789360046387</v>
+        <v>13.79013347625732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.71860027313232</v>
+        <v>11.9502420425415</v>
       </c>
     </row>
     <row r="4">
@@ -6163,77 +6163,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.98325634002686</v>
+        <v>9.224814414978027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.954571723937988</v>
+        <v>7.966796875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.111647129058838</v>
+        <v>7.688354015350342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.856269359588623</v>
+        <v>7.662010192871094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.680921077728271</v>
+        <v>7.092957019805908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.307764530181885</v>
+        <v>5.904458999633789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.089261531829834</v>
+        <v>5.760317802429199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.80748176574707</v>
+        <v>5.280579090118408</v>
       </c>
     </row>
   </sheetData>
@@ -6270,61 +6270,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.44584274291992</v>
+        <v>27.4133472442627</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.57511329650879</v>
+        <v>17.43954658508301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.379555702209473</v>
+        <v>9.414043426513672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.181124210357666</v>
+        <v>9.220545768737793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.176765918731689</v>
+        <v>7.667119026184082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.500608444213867</v>
+        <v>5.362966060638428</v>
       </c>
     </row>
     <row r="8">
@@ -6334,37 +6334,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.816386222839355</v>
+        <v>3.669416904449463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.2593994140625</v>
+        <v>3.650543451309204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.788166046142578</v>
+        <v>3.548384428024292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.967134475708008</v>
+        <v>3.142086029052734</v>
       </c>
     </row>
   </sheetData>
@@ -6401,41 +6401,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.9509220123291</v>
+        <v>18.2308177947998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.86934185028076</v>
+        <v>15.5109691619873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.14169406890869</v>
+        <v>14.34479808807373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.48030567169189</v>
+        <v>8.543939590454102</v>
       </c>
     </row>
     <row r="6">
@@ -6445,17 +6445,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.51158237457275</v>
+        <v>7.954119205474854</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.985583305358887</v>
+        <v>7.313321590423584</v>
       </c>
     </row>
     <row r="8">
@@ -6465,37 +6465,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.046903133392334</v>
+        <v>7.050294399261475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.537565231323242</v>
+        <v>6.928620338439941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.601317882537842</v>
+        <v>3.950725078582764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.668642044067383</v>
+        <v>3.534924983978271</v>
       </c>
     </row>
   </sheetData>
@@ -6509,7 +6509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6532,21 +6532,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.80740737915039</v>
+        <v>19.23328399658203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.81721305847168</v>
+        <v>16.29001045227051</v>
       </c>
     </row>
     <row r="4">
@@ -6556,37 +6556,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.26438522338867</v>
+        <v>15.0102481842041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.10270214080811</v>
+        <v>13.63609409332275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.63649749755859</v>
+        <v>11.367844581604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.371795058250427</v>
+        <v>9.077068328857422</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.263895988464355</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.807785987854004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>custo_de_manutencao_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1624420583248138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1513268947601318</v>
       </c>
     </row>
   </sheetData>
@@ -6623,101 +6663,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.24604797363281</v>
+        <v>31.15610122680664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.14330291748047</v>
+        <v>22.04168510437012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.68239307403564</v>
+        <v>18.42474555969238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.20555686950684</v>
+        <v>13.02167510986328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.13263416290283</v>
+        <v>8.894983291625977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.590070009231567</v>
+        <v>5.392119407653809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.5343589186668396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.2944822311401367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.170061931014061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.06978645920753479</v>
       </c>
     </row>
   </sheetData>
@@ -6731,7 +6771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6754,41 +6794,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.20941162109375</v>
+        <v>99.32881927490234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.9318790435791</v>
+        <v>0.19827501475811</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.527675867080688</v>
+        <v>0.1822313815355301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.331037044525146</v>
+        <v>0.1630955338478088</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1275818645954132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.502669334411621</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6.630177974700928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>conforto_e_ergonomia_csat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.497525215148926</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5.278455257415771</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.043773055076599</v>
       </c>
     </row>
   </sheetData>
@@ -6829,53 +6929,53 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.89404296875</v>
+        <v>98.87107849121094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.1314525604248</v>
+        <v>0.366715669631958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.572397232055664</v>
+        <v>0.3607125580310822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.40210485458374</v>
+        <v>0.207187607884407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.1943047344684601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6885,7 +6985,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>autonomia_de_aplicacao_capacidade_do_tanque_de_produto/defensivos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6895,7 +6995,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6905,7 +7005,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vida_util_de_componentes_csat</t>
+          <t>ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6915,7 +7015,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6956,31 +7056,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.47281646728516</v>
+        <v>27.55816841125488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.56063079833984</v>
+        <v>16.16166114807129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.18905258178711</v>
+        <v>10.86075592041016</v>
       </c>
     </row>
     <row r="5">
@@ -6990,67 +7090,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.650376796722412</v>
+        <v>6.686644077301025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.010476589202881</v>
+        <v>6.487823963165283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.60807991027832</v>
+        <v>5.407589435577393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.389243125915527</v>
+        <v>4.805510997772217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.947654724121094</v>
+        <v>3.743715524673462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.527263164520264</v>
+        <v>3.566096067428589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.162634372711182</v>
+        <v>2.844595193862915</v>
       </c>
     </row>
   </sheetData>
@@ -7091,7 +7191,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.44567489624023</v>
+        <v>29.08012771606445</v>
       </c>
     </row>
     <row r="3">
@@ -7101,47 +7201,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.59035301208496</v>
+        <v>16.44883918762207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.14096736907959</v>
+        <v>10.9951753616333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.410767078399658</v>
+        <v>7.388617992401123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.231789112091064</v>
+        <v>6.852413177490234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.220175743103027</v>
+        <v>5.479649066925049</v>
       </c>
     </row>
     <row r="8">
@@ -7151,17 +7251,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.143902778625488</v>
+        <v>4.942532539367676</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.041138172149658</v>
+        <v>3.499968767166138</v>
       </c>
     </row>
     <row r="10">
@@ -7171,7 +7271,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.73666524887085</v>
+        <v>3.440290689468384</v>
       </c>
     </row>
     <row r="11">
@@ -7181,7 +7281,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.367126941680908</v>
+        <v>3.105626106262207</v>
       </c>
     </row>
   </sheetData>
@@ -7222,97 +7322,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.4589786529541</v>
+        <v>29.13728141784668</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.74034404754639</v>
+        <v>13.35984897613525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.826808929443359</v>
+        <v>7.65469217300415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.328433990478516</v>
+        <v>6.655340671539307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.587550163269043</v>
+        <v>6.59867525100708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.976434230804443</v>
+        <v>4.392141342163086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.971492290496826</v>
+        <v>4.303019523620605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.682135105133057</v>
+        <v>4.295254230499268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.461568355560303</v>
+        <v>4.202618598937988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.023935317993164</v>
+        <v>3.979613542556763</v>
       </c>
     </row>
   </sheetData>
@@ -7353,7 +7453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.25664520263672</v>
+        <v>20.89792251586914</v>
       </c>
     </row>
     <row r="3">
@@ -7363,17 +7463,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74802684783936</v>
+        <v>20.14490509033203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.51623725891113</v>
+        <v>6.46034049987793</v>
       </c>
     </row>
     <row r="5">
@@ -7383,37 +7483,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.964241027832031</v>
+        <v>6.209553718566895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.36557674407959</v>
+        <v>6.178308486938477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.526485919952393</v>
+        <v>6.123817920684814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.914003372192383</v>
+        <v>5.057360649108887</v>
       </c>
     </row>
     <row r="9">
@@ -7423,27 +7523,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.884071826934814</v>
+        <v>4.834534168243408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.105392932891846</v>
+        <v>4.603824615478516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.104233264923096</v>
+        <v>3.848865509033203</v>
       </c>
     </row>
   </sheetData>
@@ -7484,97 +7584,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.25886058807373</v>
+        <v>29.39444160461426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.81435775756836</v>
+        <v>16.4936580657959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.55338001251221</v>
+        <v>16.14791679382324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.41923427581787</v>
+        <v>12.7347354888916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.020190238952637</v>
+        <v>6.365959167480469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.390546798706055</v>
+        <v>3.492599248886108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.322447776794434</v>
+        <v>3.087713003158569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.224639892578125</v>
+        <v>3.018512487411499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.191076755523682</v>
+        <v>2.349599361419678</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.145040512084961</v>
+        <v>1.99651312828064</v>
       </c>
     </row>
   </sheetData>
@@ -7611,41 +7711,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.70750713348389</v>
+        <v>14.98710823059082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.916457176208496</v>
+        <v>12.05008506774902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.519596099853516</v>
+        <v>11.20124053955078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.324453353881836</v>
+        <v>10.19555854797363</v>
       </c>
     </row>
     <row r="6">
@@ -7655,57 +7755,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.285118103027344</v>
+        <v>8.639756202697754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.102205276489258</v>
+        <v>7.880836486816406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.017135620117188</v>
+        <v>6.432332992553711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>conforto_e_ergonomia_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.004912376403809</v>
+        <v>5.738133430480957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.602468490600586</v>
+        <v>5.414646625518799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.824734687805176</v>
+        <v>5.377292633056641</v>
       </c>
     </row>
   </sheetData>
@@ -7746,87 +7846,87 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.4238109588623</v>
+        <v>16.95575141906738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.60942840576172</v>
+        <v>11.26315689086914</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.970419406890869</v>
+        <v>10.65612316131592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.266470432281494</v>
+        <v>9.817628860473633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.853424072265625</v>
+        <v>7.160621166229248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.316753387451172</v>
+        <v>7.142862796783447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_ao_operar_o_equipamento_nao_sinto_dores_por_postura_e_nao_preciso_fazer_muito_esforco_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.991608619689941</v>
+        <v>7.07332181930542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.921549797058105</v>
+        <v>5.074731349945068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.54086971282959</v>
+        <v>3.965428352355957</v>
       </c>
     </row>
     <row r="11">
@@ -7836,7 +7936,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.493213176727295</v>
+        <v>3.922193765640259</v>
       </c>
     </row>
   </sheetData>
@@ -7877,7 +7977,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.3419075012207</v>
+        <v>31.02996635437012</v>
       </c>
     </row>
     <row r="3">
@@ -7887,17 +7987,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.96046257019043</v>
+        <v>12.71086597442627</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.765384674072266</v>
+        <v>11.26012516021729</v>
       </c>
     </row>
     <row r="5">
@@ -7907,67 +8007,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.558465957641602</v>
+        <v>9.374197959899902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.466947555541992</v>
+        <v>6.290717601776123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.088663101196289</v>
+        <v>5.411281108856201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.621015071868896</v>
+        <v>4.780889987945557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.942232608795166</v>
+        <v>3.783951997756958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.369971752166748</v>
+        <v>3.668834209442139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.317566871643066</v>
+        <v>3.450383186340332</v>
       </c>
     </row>
   </sheetData>
@@ -8008,7 +8108,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.90481948852539</v>
+        <v>17.91868782043457</v>
       </c>
     </row>
     <row r="3">
@@ -8018,67 +8118,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.30954551696777</v>
+        <v>11.1978120803833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.555888652801514</v>
+        <v>9.059597969055176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.625060558319092</v>
+        <v>8.835270881652832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.810325622558594</v>
+        <v>8.801216125488281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.812682151794434</v>
+        <v>6.271573066711426</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.621302604675293</v>
+        <v>5.307315826416016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.569128513336182</v>
+        <v>5.078753471374512</v>
       </c>
     </row>
     <row r="10">
@@ -8088,17 +8188,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.42086935043335</v>
+        <v>4.986592292785645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.173476696014404</v>
+        <v>4.166745185852051</v>
       </c>
     </row>
   </sheetData>
@@ -8139,17 +8239,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.48501300811768</v>
+        <v>14.27210235595703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.13258934020996</v>
+        <v>12.14616775512695</v>
       </c>
     </row>
     <row r="4">
@@ -8159,57 +8259,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.746397018432617</v>
+        <v>11.53271293640137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.860430717468262</v>
+        <v>11.08567237854004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.728131771087646</v>
+        <v>7.225053787231445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.692738056182861</v>
+        <v>5.881632328033447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.20170259475708</v>
+        <v>5.608187198638916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.134268760681152</v>
+        <v>5.401120185852051</v>
       </c>
     </row>
     <row r="10">
@@ -8219,17 +8319,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.39302921295166</v>
+        <v>5.145484924316406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.196262836456299</v>
+        <v>4.446510314941406</v>
       </c>
     </row>
   </sheetData>
@@ -8266,81 +8366,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.97339820861816</v>
+        <v>12.12757873535156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.70672416687012</v>
+        <v>11.90234661102295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.97715377807617</v>
+        <v>9.249434471130371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.602777481079102</v>
+        <v>7.686155319213867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.342281341552734</v>
+        <v>7.615356922149658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.313826084136963</v>
+        <v>7.052419185638428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.254179954528809</v>
+        <v>6.206020832061768</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.656512260437012</v>
+        <v>5.183415412902832</v>
       </c>
     </row>
     <row r="10">
@@ -8350,17 +8450,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.593106746673584</v>
+        <v>5.059651374816895</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.449605941772461</v>
+        <v>5.03100061416626</v>
       </c>
     </row>
   </sheetData>
@@ -8401,7 +8501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.40806198120117</v>
+        <v>16.09321022033691</v>
       </c>
     </row>
     <row r="3">
@@ -8411,7 +8511,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.11242580413818</v>
+        <v>12.71849250793457</v>
       </c>
     </row>
     <row r="4">
@@ -8421,77 +8521,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.04506874084473</v>
+        <v>12.2073802947998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.632864952087402</v>
+        <v>12.03967952728271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.391013145446777</v>
+        <v>8.310331344604492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.366177558898926</v>
+        <v>6.728246688842773</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.826408386230469</v>
+        <v>6.271708011627197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.914676666259766</v>
+        <v>5.564236640930176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.722187995910645</v>
+        <v>4.740113258361816</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.197381496429443</v>
+        <v>3.926263093948364</v>
       </c>
     </row>
   </sheetData>
@@ -8532,27 +8632,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.2105598449707</v>
+        <v>27.76358985900879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.25869464874268</v>
+        <v>11.4887752532959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.947226047515869</v>
+        <v>10.90011405944824</v>
       </c>
     </row>
     <row r="5">
@@ -8562,67 +8662,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.073552131652832</v>
+        <v>8.569546699523926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.932397842407227</v>
+        <v>7.77360200881958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.361781120300293</v>
+        <v>4.772136211395264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.517340183258057</v>
+        <v>4.119805812835693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.451629161834717</v>
+        <v>3.977454423904419</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.121768951416016</v>
+        <v>3.809870481491089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.859826564788818</v>
+        <v>3.522885322570801</v>
       </c>
     </row>
   </sheetData>
@@ -8659,61 +8759,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.92537689208984</v>
+        <v>30.3465633392334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.01575088500977</v>
+        <v>16.71681785583496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.5533971786499</v>
+        <v>13.29292488098145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.42845439910889</v>
+        <v>12.24346542358398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.966426849365234</v>
+        <v>7.438189506530762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.479238510131836</v>
+        <v>3.867716312408447</v>
       </c>
     </row>
     <row r="8">
@@ -8723,37 +8823,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.970349311828613</v>
+        <v>3.208461761474609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.886195659637451</v>
+        <v>3.045410394668579</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.060825347900391</v>
+        <v>2.578066825866699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.033297538757324</v>
+        <v>1.901419878005981</v>
       </c>
     </row>
   </sheetData>
@@ -8794,87 +8894,87 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.94371223449707</v>
+        <v>21.49209594726562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.16419506072998</v>
+        <v>11.035569190979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.6109619140625</v>
+        <v>8.302567481994629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.032505512237549</v>
+        <v>8.194482803344727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.993463039398193</v>
+        <v>5.644629001617432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.395427703857422</v>
+        <v>5.627654552459717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.289662837982178</v>
+        <v>5.508214473724365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.061917304992676</v>
+        <v>5.39929723739624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.890011310577393</v>
+        <v>5.069614887237549</v>
       </c>
     </row>
     <row r="11">
@@ -8884,7 +8984,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.825024604797363</v>
+        <v>4.971144199371338</v>
       </c>
     </row>
   </sheetData>
@@ -8925,97 +9025,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.72695350646973</v>
+        <v>32.16245269775391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.87794971466064</v>
+        <v>13.36427021026611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.74285888671875</v>
+        <v>8.06123161315918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.03251266479492</v>
+        <v>7.735288143157959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.0278902053833</v>
+        <v>7.468660831451416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.310102939605713</v>
+        <v>7.271108150482178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.087291240692139</v>
+        <v>6.870674133300781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.939088344573975</v>
+        <v>3.338066816329956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_da_frota_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.56869649887085</v>
+        <v>3.10296893119812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>conforto_e_ergonomia_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.642757892608643</v>
+        <v>2.503562211990356</v>
       </c>
     </row>
   </sheetData>
@@ -9052,21 +9152,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.83924674987793</v>
+        <v>13.81179237365723</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.59891033172607</v>
+        <v>13.3552417755127</v>
       </c>
     </row>
     <row r="4">
@@ -9076,57 +9176,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.514429092407227</v>
+        <v>11.13605117797852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.201487064361572</v>
+        <v>10.36600589752197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.839446067810059</v>
+        <v>10.01307392120361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.720317363739014</v>
+        <v>7.63103199005127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.573021411895752</v>
+        <v>5.864902496337891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.575447082519531</v>
+        <v>4.96438455581665</v>
       </c>
     </row>
     <row r="10">
@@ -9136,7 +9236,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.552457332611084</v>
+        <v>4.345191478729248</v>
       </c>
     </row>
     <row r="11">
@@ -9146,7 +9246,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.500197410583496</v>
+        <v>4.228313446044922</v>
       </c>
     </row>
   </sheetData>
@@ -9187,87 +9287,87 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.01283073425293</v>
+        <v>22.12681198120117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.335902214050293</v>
+        <v>19.75685882568359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.53240442276001</v>
+        <v>17.26597213745117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.315738677978516</v>
+        <v>12.46316051483154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.223962306976318</v>
+        <v>6.158584594726562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>consumo_de_combustivel_litros_por_hectares_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.179143905639648</v>
+        <v>4.305723190307617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>geracao_e_transmissao_de_dados_para_gestao_agricola_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.161170959472656</v>
+        <v>3.887881994247437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.845266342163086</v>
+        <v>3.625034093856812</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.560114860534668</v>
+        <v>3.49787425994873</v>
       </c>
     </row>
     <row r="11">
@@ -9277,7 +9377,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.887439250946045</v>
+        <v>2.499001979827881</v>
       </c>
     </row>
   </sheetData>
@@ -9291,7 +9391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9314,91 +9414,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
+          <t>custo_de_manutencao_csat</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.39419937133789</v>
+        <v>40.00244140625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>facilidade_de_operacao_csat</t>
+          <t>disponibilidade_e_confiabilidade_mecanica_csat</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.84919548034668</v>
+        <v>11.96621513366699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
+          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.2273998260498</v>
+        <v>10.29039192199707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>como_voce_avalia_o_conforto_e_a_ergonomia_do_seu_modelo_considere_por_exemplo_o_conforto_do_assento_a_visibilidade_da_cabine_a_compreensao_e_o_layout_dos_controles_csat</t>
+          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.40213394165039</v>
+        <v>10.14673233032227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>facilidade_para_realizacao_de_manutencoes_csat</t>
+          <t>adaptabilidade_as_mais_diversas_condicoes_de_trabalho_csat</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.6876392364502</v>
+        <v>7.253192901611328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>custo_de_manutencao_csat</t>
+          <t>como_voce_avalia_a_qualidade_e_a_confiabilidade_do_seu_modelo_considere_o_acabamento_e_a_aparencia_da_sua_maquina_falhas_problemas_de_confiabilidade_ou_avarias_que_voce_possa_ter_tido_csat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.73777675628662</v>
+        <v>5.851475238800049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>capacidade_operacional_hectares_por_hora_csat</t>
+          <t>agora_considere_caracteristicas_especificas_do_seu_modelo_como_voce_avalia_seu_desempenho_csat</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7458237409591675</v>
+        <v>5.231820583343506</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+          <t>capacidade_operacional_hectares_por_hora_csat</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5167461633682251</v>
+        <v>4.470868587493896</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>facilidade_de_uso_do_piloto_automatico_csat</t>
+          <t>facilidade_de_operacao_csat</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4390833079814911</v>
+        <v>4.041349411010742</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adequacao_as_diversas_operacoes_e_implementos_csat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5874047875404358</v>
       </c>
     </row>
   </sheetData>
